--- a/api/AbilityInfo.xlsx
+++ b/api/AbilityInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Runescape\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\RunescapeCalculator\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316B5CFD-BB60-4D15-BBD3-54E29F4B8874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4058E33F-B571-4800-8F00-B84E89381EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1245" yWindow="4350" windowWidth="37155" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="4635" windowWidth="37155" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="234">
   <si>
     <t>Name</t>
   </si>
@@ -710,6 +710,18 @@
   </si>
   <si>
     <t>[0.188; 0.188; 0.188; 0.188; 0.188; 0.188; 0.188; 0.188; 0.188]</t>
+  </si>
+  <si>
+    <t>Greater Concentrated Blast</t>
+  </si>
+  <si>
+    <t>[0; 1; 2]</t>
+  </si>
+  <si>
+    <t>[0.869; 0.969; 1.069]</t>
+  </si>
+  <si>
+    <t>[0.217; 0.242; 0.267]</t>
   </si>
 </sst>
 </file>
@@ -5017,7 +5029,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A69:AO96" headerRowDxfId="263" dataDxfId="262" totalsRowDxfId="261">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A70:AO97" headerRowDxfId="263" dataDxfId="262" totalsRowDxfId="261">
   <tableColumns count="41">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="260"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Revolution" dataDxfId="259"/>
@@ -5115,7 +5127,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_3" displayName="Table_3" ref="A102:AO107" headerRowDxfId="175" dataDxfId="174" totalsRowDxfId="173">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_3" displayName="Table_3" ref="A103:AO108" headerRowDxfId="175" dataDxfId="174" totalsRowDxfId="173">
   <tableColumns count="41">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name" dataDxfId="172"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Revolution" dataDxfId="171"/>
@@ -5164,7 +5176,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_4" displayName="Table_4" ref="A41:AO67" headerRowDxfId="131" dataDxfId="130" totalsRowDxfId="129">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_4" displayName="Table_4" ref="A41:AO68" headerRowDxfId="131" dataDxfId="130" totalsRowDxfId="129">
   <tableColumns count="41">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Name" dataDxfId="128"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Revolution" dataDxfId="127"/>
@@ -5262,7 +5274,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_6" displayName="Table_6" ref="A98:AO100" headerRowDxfId="43" dataDxfId="42" totalsRowDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_6" displayName="Table_6" ref="A99:AO101" headerRowDxfId="43" dataDxfId="42" totalsRowDxfId="41">
   <tableColumns count="41">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Name" dataDxfId="40"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Revolution" dataDxfId="39"/>
@@ -5511,12 +5523,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AQ110"/>
+  <dimension ref="A1:AQ111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="A46" sqref="A46"/>
-      <selection pane="topRight" activeCell="O50" sqref="O50"/>
+      <selection pane="topRight" activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7277,7 +7289,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" s="7" t="b">
         <v>0</v>
@@ -7404,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" s="7" t="b">
         <v>0</v>
@@ -9354,7 +9366,7 @@
         <v>0</v>
       </c>
       <c r="U31" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31" s="7" t="b">
         <v>0</v>
@@ -9481,7 +9493,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V32" s="7" t="b">
         <v>0</v>
@@ -9989,7 +10001,7 @@
         <v>0</v>
       </c>
       <c r="U36" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36" s="7" t="b">
         <v>0</v>
@@ -10370,7 +10382,7 @@
         <v>0</v>
       </c>
       <c r="U39" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V39" s="7" t="b">
         <v>0</v>
@@ -11177,7 +11189,7 @@
         <v>0</v>
       </c>
       <c r="U46" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V46" s="7" t="b">
         <v>0</v>
@@ -11304,7 +11316,7 @@
         <v>0</v>
       </c>
       <c r="U47" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V47" s="7" t="b">
         <v>0</v>
@@ -12193,7 +12205,7 @@
         <v>0</v>
       </c>
       <c r="U54" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V54" s="7" t="b">
         <v>0</v>
@@ -12260,7 +12272,7 @@
     </row>
     <row r="55" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>97</v>
+        <v>230</v>
       </c>
       <c r="B55" s="7" t="b">
         <v>1</v>
@@ -12269,52 +12281,52 @@
         <v>84</v>
       </c>
       <c r="D55" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F55" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" s="4">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I55" s="7">
-        <v>1</v>
-      </c>
-      <c r="J55" s="7">
-        <v>1</v>
-      </c>
-      <c r="K55" s="7">
-        <v>0</v>
-      </c>
-      <c r="L55" s="7">
-        <v>0</v>
-      </c>
-      <c r="M55" s="7">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="J55" s="4">
+        <v>3</v>
+      </c>
+      <c r="K55" s="4">
+        <v>0</v>
+      </c>
+      <c r="L55" s="4">
+        <v>4</v>
+      </c>
+      <c r="M55" s="4">
+        <v>3</v>
       </c>
       <c r="N55" s="7">
         <v>0</v>
       </c>
       <c r="O55" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P55" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="5" t="s">
-        <v>158</v>
+        <v>1</v>
+      </c>
+      <c r="Q55" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="R55" s="4" t="s">
-        <v>185</v>
+        <v>232</v>
       </c>
       <c r="S55" s="4" t="s">
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="T55" s="7" t="b">
         <v>0</v>
@@ -12341,16 +12353,16 @@
         <v>158</v>
       </c>
       <c r="AB55" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC55" s="4">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="AC55" s="7">
+        <v>1</v>
       </c>
       <c r="AD55" s="7" t="b">
         <v>0</v>
       </c>
       <c r="AE55" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF55" s="2" t="b">
         <v>0</v>
@@ -12387,7 +12399,7 @@
     </row>
     <row r="56" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B56" s="7" t="b">
         <v>1</v>
@@ -12396,10 +12408,10 @@
         <v>84</v>
       </c>
       <c r="D56" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F56" s="7" t="b">
         <v>0</v>
@@ -12411,13 +12423,13 @@
         <v>41</v>
       </c>
       <c r="I56" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J56" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L56" s="7">
         <v>0</v>
@@ -12425,38 +12437,38 @@
       <c r="M56" s="7">
         <v>0</v>
       </c>
-      <c r="N56" s="4">
-        <v>1</v>
+      <c r="N56" s="7">
+        <v>0</v>
       </c>
       <c r="O56" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="Q56" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="R56" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="S56" s="5" t="s">
-        <v>158</v>
+      <c r="Q56" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="R56" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="S56" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="T56" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U56" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V56" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="W56" s="4" t="s">
-        <v>170</v>
+      <c r="W56" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="X56" s="5" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="Y56" s="7" t="b">
         <v>0</v>
@@ -12468,10 +12480,10 @@
         <v>158</v>
       </c>
       <c r="AB56" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC56" s="7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AC56" s="4">
+        <v>6</v>
       </c>
       <c r="AD56" s="7" t="b">
         <v>0</v>
@@ -12514,16 +12526,16 @@
     </row>
     <row r="57" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B57" s="7" t="b">
         <v>1</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D57" s="7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>40</v>
@@ -12532,19 +12544,19 @@
         <v>0</v>
       </c>
       <c r="G57" s="4">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="I57" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J57" s="7">
         <v>0</v>
       </c>
       <c r="K57" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L57" s="7">
         <v>0</v>
@@ -12552,8 +12564,8 @@
       <c r="M57" s="7">
         <v>0</v>
       </c>
-      <c r="N57" s="7">
-        <v>0</v>
+      <c r="N57" s="4">
+        <v>1</v>
       </c>
       <c r="O57" s="7" t="b">
         <v>0</v>
@@ -12561,8 +12573,8 @@
       <c r="P57" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="Q57" s="5" t="s">
-        <v>158</v>
+      <c r="Q57" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="R57" s="5" t="s">
         <v>158</v>
@@ -12571,19 +12583,19 @@
         <v>158</v>
       </c>
       <c r="T57" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U57" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V57" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="W57" s="5" t="s">
-        <v>158</v>
+      <c r="W57" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="X57" s="5" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Y57" s="7" t="b">
         <v>0</v>
@@ -12641,43 +12653,43 @@
     </row>
     <row r="58" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B58" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D58" s="7">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F58" s="7" t="b">
         <v>0</v>
       </c>
       <c r="G58" s="4">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="I58" s="7">
-        <v>1</v>
-      </c>
-      <c r="J58" s="4">
-        <v>1</v>
-      </c>
-      <c r="K58" s="4">
+        <v>0</v>
+      </c>
+      <c r="J58" s="7">
+        <v>0</v>
+      </c>
+      <c r="K58" s="7">
         <v>0</v>
       </c>
       <c r="L58" s="7">
         <v>0</v>
       </c>
-      <c r="M58" s="4">
-        <v>7</v>
+      <c r="M58" s="7">
+        <v>0</v>
       </c>
       <c r="N58" s="7">
         <v>0</v>
@@ -12686,22 +12698,22 @@
         <v>0</v>
       </c>
       <c r="P58" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q58" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="R58" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="S58" s="4" t="s">
-        <v>166</v>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="R58" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="S58" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="T58" s="7" t="b">
         <v>0</v>
       </c>
       <c r="U58" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V58" s="7" t="b">
         <v>0</v>
@@ -12761,32 +12773,32 @@
         <v>0</v>
       </c>
       <c r="AO58" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP58" s="5"/>
       <c r="AQ58"/>
     </row>
     <row r="59" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B59" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>84</v>
       </c>
       <c r="D59" s="7">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F59" s="7" t="b">
         <v>0</v>
       </c>
       <c r="G59" s="4">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>41</v>
@@ -12794,35 +12806,35 @@
       <c r="I59" s="7">
         <v>1</v>
       </c>
-      <c r="J59" s="7">
-        <v>1</v>
-      </c>
-      <c r="K59" s="7">
+      <c r="J59" s="4">
+        <v>1</v>
+      </c>
+      <c r="K59" s="4">
         <v>0</v>
       </c>
       <c r="L59" s="7">
         <v>0</v>
       </c>
-      <c r="M59" s="7">
-        <v>0</v>
+      <c r="M59" s="4">
+        <v>7</v>
       </c>
       <c r="N59" s="7">
         <v>0</v>
       </c>
       <c r="O59" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P59" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="5" t="s">
-        <v>158</v>
+        <v>1</v>
+      </c>
+      <c r="Q59" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="R59" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="S59" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="S59" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="T59" s="7" t="b">
         <v>0</v>
@@ -12895,7 +12907,7 @@
     </row>
     <row r="60" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="B60" s="7" t="b">
         <v>1</v>
@@ -12910,7 +12922,7 @@
         <v>40</v>
       </c>
       <c r="F60" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" s="4">
         <v>17</v>
@@ -13022,7 +13034,7 @@
     </row>
     <row r="61" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="B61" s="7" t="b">
         <v>1</v>
@@ -13031,27 +13043,27 @@
         <v>84</v>
       </c>
       <c r="D61" s="7">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F61" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" s="4">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>41</v>
       </c>
       <c r="I61" s="7">
-        <v>2</v>
-      </c>
-      <c r="J61" s="4">
-        <v>2</v>
-      </c>
-      <c r="K61" s="4">
+        <v>1</v>
+      </c>
+      <c r="J61" s="7">
+        <v>1</v>
+      </c>
+      <c r="K61" s="7">
         <v>0</v>
       </c>
       <c r="L61" s="7">
@@ -13069,20 +13081,20 @@
       <c r="P61" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="Q61" s="4" t="s">
-        <v>215</v>
+      <c r="Q61" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="R61" s="4" t="s">
-        <v>220</v>
+        <v>166</v>
       </c>
       <c r="S61" s="4" t="s">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c r="T61" s="7" t="b">
         <v>0</v>
       </c>
       <c r="U61" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V61" s="7" t="b">
         <v>0</v>
@@ -13142,43 +13154,43 @@
         <v>0</v>
       </c>
       <c r="AO61" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP61" s="5"/>
       <c r="AQ61"/>
     </row>
     <row r="62" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B62" s="7" t="b">
         <v>1</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D62" s="7">
         <v>55</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F62" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" s="4">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="I62" s="7">
-        <v>0</v>
-      </c>
-      <c r="J62" s="7">
-        <v>0</v>
-      </c>
-      <c r="K62" s="7">
+        <v>2</v>
+      </c>
+      <c r="J62" s="4">
+        <v>2</v>
+      </c>
+      <c r="K62" s="4">
         <v>0</v>
       </c>
       <c r="L62" s="7">
@@ -13191,19 +13203,19 @@
         <v>0</v>
       </c>
       <c r="O62" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="Q62" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="R62" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="S62" s="5" t="s">
-        <v>158</v>
+      <c r="Q62" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="R62" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="S62" s="4" t="s">
+        <v>221</v>
       </c>
       <c r="T62" s="7" t="b">
         <v>0</v>
@@ -13266,7 +13278,7 @@
         <v>0</v>
       </c>
       <c r="AN62" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO62" s="7" t="b">
         <v>0</v>
@@ -13276,28 +13288,28 @@
     </row>
     <row r="63" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B63" s="7" t="b">
         <v>1</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D63" s="7">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F63" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G63" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="I63" s="7">
         <v>0</v>
@@ -13384,16 +13396,16 @@
         <v>0</v>
       </c>
       <c r="AK63" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL63" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AM63" s="7">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="AN63" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO63" s="7" t="b">
         <v>0</v>
@@ -13403,7 +13415,7 @@
     </row>
     <row r="64" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B64" s="7" t="b">
         <v>1</v>
@@ -13412,28 +13424,28 @@
         <v>84</v>
       </c>
       <c r="D64" s="7">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F64" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G64" s="4">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>41</v>
       </c>
       <c r="I64" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J64" s="7">
         <v>0</v>
       </c>
       <c r="K64" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L64" s="7">
         <v>0</v>
@@ -13441,8 +13453,8 @@
       <c r="M64" s="7">
         <v>0</v>
       </c>
-      <c r="N64" s="4">
-        <v>1</v>
+      <c r="N64" s="7">
+        <v>0</v>
       </c>
       <c r="O64" s="7" t="b">
         <v>0</v>
@@ -13450,8 +13462,8 @@
       <c r="P64" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="Q64" s="4" t="s">
-        <v>208</v>
+      <c r="Q64" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="R64" s="5" t="s">
         <v>158</v>
@@ -13460,19 +13472,19 @@
         <v>158</v>
       </c>
       <c r="T64" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U64" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V64" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="W64" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="X64" s="4" t="s">
-        <v>176</v>
+      <c r="W64" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="X64" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="Y64" s="7" t="b">
         <v>0</v>
@@ -13511,26 +13523,26 @@
         <v>0</v>
       </c>
       <c r="AK64" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL64" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AM64" s="7">
-        <v>0</v>
+        <v>1.625</v>
       </c>
       <c r="AN64" s="7" t="b">
         <v>0</v>
       </c>
       <c r="AO64" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP64" s="5"/>
       <c r="AQ64"/>
     </row>
     <row r="65" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B65" s="7" t="b">
         <v>1</v>
@@ -13539,55 +13551,55 @@
         <v>84</v>
       </c>
       <c r="D65" s="7">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F65" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G65" s="4">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>41</v>
       </c>
       <c r="I65" s="7">
-        <v>4</v>
-      </c>
-      <c r="J65" s="4">
-        <v>4</v>
-      </c>
-      <c r="K65" s="4">
-        <v>0</v>
-      </c>
-      <c r="L65" s="4">
-        <v>7</v>
-      </c>
-      <c r="M65" s="4">
-        <v>7</v>
-      </c>
-      <c r="N65" s="7">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="J65" s="7">
+        <v>0</v>
+      </c>
+      <c r="K65" s="7">
+        <v>5</v>
+      </c>
+      <c r="L65" s="7">
+        <v>0</v>
+      </c>
+      <c r="M65" s="7">
+        <v>0</v>
+      </c>
+      <c r="N65" s="4">
+        <v>1</v>
       </c>
       <c r="O65" s="7" t="b">
         <v>0</v>
       </c>
       <c r="P65" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="R65" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="S65" s="4" t="s">
-        <v>222</v>
+        <v>208</v>
+      </c>
+      <c r="R65" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="S65" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="T65" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U65" s="7">
         <v>1</v>
@@ -13595,11 +13607,11 @@
       <c r="V65" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="W65" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="X65" s="5" t="s">
-        <v>158</v>
+      <c r="W65" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="X65" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="Y65" s="7" t="b">
         <v>0</v>
@@ -13650,14 +13662,14 @@
         <v>0</v>
       </c>
       <c r="AO65" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP65" s="5"/>
       <c r="AQ65"/>
     </row>
     <row r="66" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B66" s="7" t="b">
         <v>1</v>
@@ -13666,52 +13678,52 @@
         <v>84</v>
       </c>
       <c r="D66" s="7">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F66" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" s="4">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>41</v>
       </c>
       <c r="I66" s="7">
-        <v>1</v>
-      </c>
-      <c r="J66" s="7">
-        <v>1</v>
-      </c>
-      <c r="K66" s="7">
-        <v>0</v>
-      </c>
-      <c r="L66" s="7">
-        <v>0</v>
-      </c>
-      <c r="M66" s="7">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="J66" s="4">
+        <v>4</v>
+      </c>
+      <c r="K66" s="4">
+        <v>0</v>
+      </c>
+      <c r="L66" s="4">
+        <v>7</v>
+      </c>
+      <c r="M66" s="4">
+        <v>7</v>
       </c>
       <c r="N66" s="7">
         <v>0</v>
       </c>
       <c r="O66" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P66" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="5" t="s">
-        <v>158</v>
+        <v>1</v>
+      </c>
+      <c r="Q66" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="R66" s="4" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="S66" s="4" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="T66" s="7" t="b">
         <v>0</v>
@@ -13777,14 +13789,14 @@
         <v>0</v>
       </c>
       <c r="AO66" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP66" s="5"/>
       <c r="AQ66"/>
     </row>
     <row r="67" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B67" s="7" t="b">
         <v>1</v>
@@ -13793,13 +13805,13 @@
         <v>84</v>
       </c>
       <c r="D67" s="7">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>51</v>
       </c>
       <c r="F67" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" s="4">
         <v>100</v>
@@ -13808,13 +13820,13 @@
         <v>41</v>
       </c>
       <c r="I67" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J67" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L67" s="7">
         <v>0</v>
@@ -13822,38 +13834,38 @@
       <c r="M67" s="7">
         <v>0</v>
       </c>
-      <c r="N67" s="4">
-        <v>3</v>
+      <c r="N67" s="7">
+        <v>0</v>
       </c>
       <c r="O67" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="Q67" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="R67" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="S67" s="5" t="s">
-        <v>158</v>
+      <c r="Q67" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="R67" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="S67" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="T67" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U67" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V67" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="W67" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="X67" s="4" t="s">
-        <v>182</v>
+      <c r="W67" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="X67" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="Y67" s="7" t="b">
         <v>0</v>
@@ -13892,325 +13904,325 @@
         <v>0</v>
       </c>
       <c r="AK67" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL67" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AM67" s="7">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AN67" s="7" t="b">
         <v>0</v>
       </c>
       <c r="AO67" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP67" s="5"/>
       <c r="AQ67"/>
     </row>
-    <row r="68" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
-      <c r="S68" s="2"/>
-      <c r="T68" s="2"/>
-      <c r="U68" s="2"/>
-      <c r="V68" s="2"/>
-      <c r="W68" s="2"/>
-      <c r="X68" s="2"/>
-      <c r="Y68" s="2"/>
-      <c r="Z68" s="2"/>
-      <c r="AA68" s="2"/>
-      <c r="AB68" s="2"/>
-      <c r="AC68" s="2"/>
-      <c r="AD68" s="2"/>
-      <c r="AE68" s="2"/>
-      <c r="AF68" s="2"/>
-      <c r="AG68" s="2"/>
-      <c r="AH68" s="2"/>
-      <c r="AI68" s="2"/>
-      <c r="AJ68" s="2"/>
-      <c r="AK68" s="2"/>
-      <c r="AL68" s="2"/>
-      <c r="AM68" s="2"/>
-      <c r="AN68" s="2"/>
-      <c r="AO68" s="16"/>
-      <c r="AP68" s="16"/>
-      <c r="AQ68" s="16"/>
+    <row r="68" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D68" s="7">
+        <v>85</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F68" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G68" s="4">
+        <v>100</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I68" s="7">
+        <v>16</v>
+      </c>
+      <c r="J68" s="7">
+        <v>0</v>
+      </c>
+      <c r="K68" s="7">
+        <v>16</v>
+      </c>
+      <c r="L68" s="7">
+        <v>0</v>
+      </c>
+      <c r="M68" s="7">
+        <v>0</v>
+      </c>
+      <c r="N68" s="4">
+        <v>3</v>
+      </c>
+      <c r="O68" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P68" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="R68" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="S68" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="T68" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U68" s="7">
+        <v>1</v>
+      </c>
+      <c r="V68" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="W68" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="X68" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y68" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA68" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB68" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH68" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI68" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ68" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK68" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL68" s="7">
+        <v>50</v>
+      </c>
+      <c r="AM68" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="AN68" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO68" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP68" s="5"/>
+      <c r="AQ68"/>
     </row>
-    <row r="69" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H69" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I69" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="J69" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K69" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L69" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="M69" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N69" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O69" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="P69" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q69" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="R69" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="S69" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="T69" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="U69" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="V69" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="W69" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="X69" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y69" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z69" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA69" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB69" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC69" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD69" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE69" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF69" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG69" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="AH69" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="AI69" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ69" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK69" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL69" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="AM69" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN69" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO69" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AP69" s="18"/>
-      <c r="AQ69"/>
+    <row r="69" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
+      <c r="X69" s="2"/>
+      <c r="Y69" s="2"/>
+      <c r="Z69" s="2"/>
+      <c r="AA69" s="2"/>
+      <c r="AB69" s="2"/>
+      <c r="AC69" s="2"/>
+      <c r="AD69" s="2"/>
+      <c r="AE69" s="2"/>
+      <c r="AF69" s="2"/>
+      <c r="AG69" s="2"/>
+      <c r="AH69" s="2"/>
+      <c r="AI69" s="2"/>
+      <c r="AJ69" s="2"/>
+      <c r="AK69" s="2"/>
+      <c r="AL69" s="2"/>
+      <c r="AM69" s="2"/>
+      <c r="AN69" s="2"/>
+      <c r="AO69" s="16"/>
+      <c r="AP69" s="16"/>
+      <c r="AQ69" s="16"/>
     </row>
     <row r="70" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B70" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D70" s="7">
-        <v>0</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F70" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G70" s="4">
+        <v>0</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J70" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K70" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L70" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M70" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N70" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O70" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P70" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q70" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R70" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H70" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I70" s="7">
-        <v>1</v>
-      </c>
-      <c r="J70" s="4">
-        <v>1</v>
-      </c>
-      <c r="K70" s="4">
-        <v>0</v>
-      </c>
-      <c r="L70" s="4">
-        <v>5</v>
-      </c>
-      <c r="M70" s="4">
-        <v>4</v>
-      </c>
-      <c r="N70" s="4">
-        <v>1</v>
-      </c>
-      <c r="O70" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P70" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q70" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="R70" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="S70" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T70" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="U70" s="7">
-        <v>1</v>
-      </c>
-      <c r="V70" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="W70" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="X70" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y70" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA70" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB70" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC70" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD70" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE70" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG70" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH70" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI70" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ70" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK70" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL70" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM70" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN70" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO70" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP70" s="5"/>
+      <c r="S70" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="T70" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="U70" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="V70" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="W70" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="X70" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y70" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z70" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA70" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB70" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC70" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD70" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE70" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF70" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG70" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH70" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI70" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ70" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK70" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL70" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM70" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN70" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO70" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP70" s="18"/>
       <c r="AQ70"/>
     </row>
     <row r="71" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B71" s="7" t="b">
         <v>1</v>
@@ -14228,7 +14240,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="4">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H71" s="7" t="s">
         <v>41</v>
@@ -14236,35 +14248,35 @@
       <c r="I71" s="7">
         <v>1</v>
       </c>
-      <c r="J71" s="7">
-        <v>1</v>
-      </c>
-      <c r="K71" s="7">
-        <v>0</v>
-      </c>
-      <c r="L71" s="7">
-        <v>0</v>
-      </c>
-      <c r="M71" s="7">
-        <v>0</v>
+      <c r="J71" s="4">
+        <v>1</v>
+      </c>
+      <c r="K71" s="4">
+        <v>0</v>
+      </c>
+      <c r="L71" s="4">
+        <v>5</v>
+      </c>
+      <c r="M71" s="4">
+        <v>4</v>
       </c>
       <c r="N71" s="4">
         <v>1</v>
       </c>
       <c r="O71" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P71" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="5" t="s">
-        <v>158</v>
+        <v>1</v>
+      </c>
+      <c r="Q71" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="R71" s="4" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="S71" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="T71" s="7" t="b">
         <v>0</v>
@@ -14282,13 +14294,13 @@
         <v>158</v>
       </c>
       <c r="Y71" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z71" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA71" s="7" t="s">
-        <v>157</v>
+        <v>0</v>
+      </c>
+      <c r="Z71" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA71" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="AB71" s="7" t="b">
         <v>0</v>
@@ -14337,7 +14349,7 @@
     </row>
     <row r="72" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B72" s="7" t="b">
         <v>1</v>
@@ -14355,19 +14367,19 @@
         <v>0</v>
       </c>
       <c r="G72" s="4">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H72" s="7" t="s">
         <v>41</v>
       </c>
       <c r="I72" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J72" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L72" s="7">
         <v>0</v>
@@ -14379,43 +14391,43 @@
         <v>1</v>
       </c>
       <c r="O72" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P72" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="Q72" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="R72" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="S72" s="5" t="s">
-        <v>158</v>
+      <c r="Q72" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="R72" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="S72" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="T72" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U72" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V72" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="W72" s="4" t="s">
-        <v>174</v>
+      <c r="W72" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="X72" s="5" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="Y72" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z72" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA72" s="5" t="s">
-        <v>158</v>
+        <v>1</v>
+      </c>
+      <c r="Z72" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA72" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="AB72" s="7" t="b">
         <v>0</v>
@@ -14464,7 +14476,7 @@
     </row>
     <row r="73" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B73" s="7" t="b">
         <v>1</v>
@@ -14488,13 +14500,13 @@
         <v>41</v>
       </c>
       <c r="I73" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J73" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L73" s="7">
         <v>0</v>
@@ -14506,34 +14518,34 @@
         <v>1</v>
       </c>
       <c r="O73" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P73" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="Q73" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="R73" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="S73" s="4" t="s">
-        <v>165</v>
+      <c r="Q73" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="R73" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="S73" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="T73" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U73" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V73" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="W73" s="5" t="s">
-        <v>158</v>
+      <c r="W73" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="X73" s="5" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Y73" s="7" t="b">
         <v>0</v>
@@ -14545,16 +14557,16 @@
         <v>158</v>
       </c>
       <c r="AB73" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC73" s="4">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AC73" s="7">
+        <v>0</v>
       </c>
       <c r="AD73" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE73" s="4">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="AE73" s="7">
+        <v>0</v>
       </c>
       <c r="AF73" s="2" t="b">
         <v>0</v>
@@ -14591,7 +14603,7 @@
     </row>
     <row r="74" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B74" s="7" t="b">
         <v>1</v>
@@ -14609,10 +14621,10 @@
         <v>0</v>
       </c>
       <c r="G74" s="4">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I74" s="7">
         <v>1</v>
@@ -14642,7 +14654,7 @@
         <v>158</v>
       </c>
       <c r="R74" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="S74" s="4" t="s">
         <v>165</v>
@@ -14672,16 +14684,16 @@
         <v>158</v>
       </c>
       <c r="AB74" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC74" s="7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AC74" s="4">
+        <v>2</v>
       </c>
       <c r="AD74" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE74" s="7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AE74" s="4">
+        <v>16</v>
       </c>
       <c r="AF74" s="2" t="b">
         <v>0</v>
@@ -14718,7 +14730,7 @@
     </row>
     <row r="75" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B75" s="7" t="b">
         <v>1</v>
@@ -14739,7 +14751,7 @@
         <v>9</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I75" s="7">
         <v>1</v>
@@ -14845,7 +14857,7 @@
     </row>
     <row r="76" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B76" s="7" t="b">
         <v>1</v>
@@ -14857,22 +14869,22 @@
         <v>0</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F76" s="7" t="b">
         <v>0</v>
       </c>
       <c r="G76" s="4">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I76" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K76" s="7">
         <v>0</v>
@@ -14892,14 +14904,14 @@
       <c r="P76" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="Q76" s="4" t="s">
-        <v>217</v>
+      <c r="Q76" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="R76" s="4" t="s">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="S76" s="4" t="s">
-        <v>226</v>
+        <v>165</v>
       </c>
       <c r="T76" s="7" t="b">
         <v>0</v>
@@ -14972,7 +14984,7 @@
     </row>
     <row r="77" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B77" s="7" t="b">
         <v>1</v>
@@ -14981,28 +14993,28 @@
         <v>112</v>
       </c>
       <c r="D77" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F77" s="7" t="b">
         <v>0</v>
       </c>
       <c r="G77" s="4">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>41</v>
       </c>
       <c r="I77" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J77" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K77" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L77" s="7">
         <v>0</v>
@@ -15010,8 +15022,8 @@
       <c r="M77" s="7">
         <v>0</v>
       </c>
-      <c r="N77" s="7">
-        <v>0</v>
+      <c r="N77" s="4">
+        <v>1</v>
       </c>
       <c r="O77" s="7" t="b">
         <v>1</v>
@@ -15020,28 +15032,28 @@
         <v>0</v>
       </c>
       <c r="Q77" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="R77" s="4" t="s">
-        <v>156</v>
+        <v>225</v>
       </c>
       <c r="S77" s="4" t="s">
-        <v>157</v>
+        <v>226</v>
       </c>
       <c r="T77" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U77" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V77" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="W77" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="X77" s="4" t="s">
-        <v>171</v>
+      <c r="W77" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="X77" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="Y77" s="7" t="b">
         <v>0</v>
@@ -15099,7 +15111,7 @@
     </row>
     <row r="78" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B78" s="7" t="b">
         <v>1</v>
@@ -15108,28 +15120,28 @@
         <v>112</v>
       </c>
       <c r="D78" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F78" s="7" t="b">
         <v>0</v>
       </c>
       <c r="G78" s="4">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H78" s="7" t="s">
         <v>41</v>
       </c>
       <c r="I78" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J78" s="7">
         <v>1</v>
       </c>
       <c r="K78" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L78" s="7">
         <v>0</v>
@@ -15137,8 +15149,8 @@
       <c r="M78" s="7">
         <v>0</v>
       </c>
-      <c r="N78" s="4">
-        <v>1</v>
+      <c r="N78" s="7">
+        <v>0</v>
       </c>
       <c r="O78" s="7" t="b">
         <v>1</v>
@@ -15146,29 +15158,29 @@
       <c r="P78" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="Q78" s="5" t="s">
-        <v>158</v>
+      <c r="Q78" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="R78" s="4" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="S78" s="4" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="T78" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U78" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V78" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="W78" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="X78" s="5" t="s">
-        <v>158</v>
+      <c r="W78" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="X78" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="Y78" s="7" t="b">
         <v>0</v>
@@ -15180,16 +15192,16 @@
         <v>158</v>
       </c>
       <c r="AB78" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC78" s="4">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="AC78" s="7">
+        <v>0</v>
       </c>
       <c r="AD78" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE78" s="4">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="AE78" s="7">
+        <v>0</v>
       </c>
       <c r="AF78" s="2" t="b">
         <v>0</v>
@@ -15226,7 +15238,7 @@
     </row>
     <row r="79" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B79" s="7" t="b">
         <v>1</v>
@@ -15235,16 +15247,16 @@
         <v>112</v>
       </c>
       <c r="D79" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F79" s="7" t="b">
         <v>0</v>
       </c>
       <c r="G79" s="4">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H79" s="7" t="s">
         <v>41</v>
@@ -15252,41 +15264,41 @@
       <c r="I79" s="7">
         <v>1</v>
       </c>
-      <c r="J79" s="4">
-        <v>1</v>
-      </c>
-      <c r="K79" s="4">
-        <v>0</v>
-      </c>
-      <c r="L79" s="4">
-        <v>5</v>
-      </c>
-      <c r="M79" s="4">
-        <v>4</v>
+      <c r="J79" s="7">
+        <v>1</v>
+      </c>
+      <c r="K79" s="7">
+        <v>0</v>
+      </c>
+      <c r="L79" s="7">
+        <v>0</v>
+      </c>
+      <c r="M79" s="7">
+        <v>0</v>
       </c>
       <c r="N79" s="4">
         <v>1</v>
       </c>
       <c r="O79" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P79" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q79" s="4" t="s">
-        <v>213</v>
+        <v>0</v>
+      </c>
+      <c r="Q79" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="R79" s="4" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="S79" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="T79" s="7" t="b">
         <v>0</v>
       </c>
       <c r="U79" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V79" s="7" t="b">
         <v>0</v>
@@ -15307,16 +15319,16 @@
         <v>158</v>
       </c>
       <c r="AB79" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC79" s="7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AC79" s="4">
+        <v>6</v>
       </c>
       <c r="AD79" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE79" s="7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AE79" s="4">
+        <v>16</v>
       </c>
       <c r="AF79" s="2" t="b">
         <v>0</v>
@@ -15353,7 +15365,7 @@
     </row>
     <row r="80" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B80" s="7" t="b">
         <v>1</v>
@@ -15362,7 +15374,7 @@
         <v>112</v>
       </c>
       <c r="D80" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>40</v>
@@ -15371,43 +15383,43 @@
         <v>0</v>
       </c>
       <c r="G80" s="4">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I80" s="7">
         <v>1</v>
       </c>
-      <c r="J80" s="7">
-        <v>1</v>
-      </c>
-      <c r="K80" s="7">
-        <v>0</v>
-      </c>
-      <c r="L80" s="7">
-        <v>0</v>
-      </c>
-      <c r="M80" s="7">
-        <v>0</v>
+      <c r="J80" s="4">
+        <v>1</v>
+      </c>
+      <c r="K80" s="4">
+        <v>0</v>
+      </c>
+      <c r="L80" s="4">
+        <v>5</v>
+      </c>
+      <c r="M80" s="4">
+        <v>4</v>
       </c>
       <c r="N80" s="4">
         <v>1</v>
       </c>
       <c r="O80" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P80" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="5" t="s">
-        <v>158</v>
+        <v>1</v>
+      </c>
+      <c r="Q80" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="R80" s="4" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="S80" s="4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="T80" s="7" t="b">
         <v>0</v>
@@ -15480,7 +15492,7 @@
     </row>
     <row r="81" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B81" s="7" t="b">
         <v>1</v>
@@ -15495,7 +15507,7 @@
         <v>40</v>
       </c>
       <c r="F81" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81" s="4">
         <v>9</v>
@@ -15504,13 +15516,13 @@
         <v>43</v>
       </c>
       <c r="I81" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J81" s="7">
         <v>1</v>
       </c>
       <c r="K81" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L81" s="7">
         <v>0</v>
@@ -15527,8 +15539,8 @@
       <c r="P81" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="Q81" s="4" t="s">
-        <v>212</v>
+      <c r="Q81" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="R81" s="4" t="s">
         <v>186</v>
@@ -15540,16 +15552,16 @@
         <v>0</v>
       </c>
       <c r="U81" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V81" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="W81" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="X81" s="4" t="s">
-        <v>180</v>
+        <v>0</v>
+      </c>
+      <c r="W81" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="X81" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="Y81" s="7" t="b">
         <v>0</v>
@@ -15607,7 +15619,7 @@
     </row>
     <row r="82" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B82" s="7" t="b">
         <v>1</v>
@@ -15616,28 +15628,28 @@
         <v>112</v>
       </c>
       <c r="D82" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F82" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" s="4">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I82" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J82" s="7">
         <v>1</v>
       </c>
       <c r="K82" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L82" s="7">
         <v>0</v>
@@ -15645,8 +15657,8 @@
       <c r="M82" s="7">
         <v>0</v>
       </c>
-      <c r="N82" s="7">
-        <v>0</v>
+      <c r="N82" s="4">
+        <v>1</v>
       </c>
       <c r="O82" s="7" t="b">
         <v>1</v>
@@ -15654,14 +15666,14 @@
       <c r="P82" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="Q82" s="5" t="s">
-        <v>158</v>
+      <c r="Q82" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="R82" s="4" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="S82" s="4" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="T82" s="7" t="b">
         <v>0</v>
@@ -15670,13 +15682,13 @@
         <v>0</v>
       </c>
       <c r="V82" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="W82" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="X82" s="5" t="s">
-        <v>158</v>
+        <v>1</v>
+      </c>
+      <c r="W82" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="X82" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="Y82" s="7" t="b">
         <v>0</v>
@@ -15688,10 +15700,10 @@
         <v>158</v>
       </c>
       <c r="AB82" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC82" s="4">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AC82" s="7">
+        <v>0</v>
       </c>
       <c r="AD82" s="7" t="b">
         <v>0</v>
@@ -15734,7 +15746,7 @@
     </row>
     <row r="83" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B83" s="7" t="b">
         <v>1</v>
@@ -15743,7 +15755,7 @@
         <v>112</v>
       </c>
       <c r="D83" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>40</v>
@@ -15752,10 +15764,10 @@
         <v>0</v>
       </c>
       <c r="G83" s="4">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I83" s="7">
         <v>1</v>
@@ -15772,8 +15784,8 @@
       <c r="M83" s="7">
         <v>0</v>
       </c>
-      <c r="N83" s="4">
-        <v>1</v>
+      <c r="N83" s="7">
+        <v>0</v>
       </c>
       <c r="O83" s="7" t="b">
         <v>1</v>
@@ -15785,10 +15797,10 @@
         <v>158</v>
       </c>
       <c r="R83" s="4" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="S83" s="4" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="T83" s="7" t="b">
         <v>0</v>
@@ -15815,10 +15827,10 @@
         <v>158</v>
       </c>
       <c r="AB83" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC83" s="7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AC83" s="4">
+        <v>2</v>
       </c>
       <c r="AD83" s="7" t="b">
         <v>0</v>
@@ -15836,10 +15848,10 @@
         <v>158</v>
       </c>
       <c r="AI83" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ83" s="7">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="AK83" s="7" t="b">
         <v>0</v>
@@ -15861,7 +15873,7 @@
     </row>
     <row r="84" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B84" s="7" t="b">
         <v>1</v>
@@ -15870,19 +15882,19 @@
         <v>112</v>
       </c>
       <c r="D84" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F84" s="7" t="b">
         <v>0</v>
       </c>
       <c r="G84" s="4">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I84" s="7">
         <v>1</v>
@@ -15899,8 +15911,8 @@
       <c r="M84" s="7">
         <v>0</v>
       </c>
-      <c r="N84" s="7">
-        <v>0</v>
+      <c r="N84" s="4">
+        <v>1</v>
       </c>
       <c r="O84" s="7" t="b">
         <v>1</v>
@@ -15912,10 +15924,10 @@
         <v>158</v>
       </c>
       <c r="R84" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S84" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T84" s="7" t="b">
         <v>0</v>
@@ -15942,15 +15954,15 @@
         <v>158</v>
       </c>
       <c r="AB84" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC84" s="4">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="AC84" s="7">
+        <v>0</v>
       </c>
       <c r="AD84" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE84" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="7">
         <v>0</v>
       </c>
       <c r="AF84" s="2" t="b">
@@ -15963,10 +15975,10 @@
         <v>158</v>
       </c>
       <c r="AI84" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ84" s="7">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AK84" s="7" t="b">
         <v>0</v>
@@ -15988,7 +16000,7 @@
     </row>
     <row r="85" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B85" s="7" t="b">
         <v>1</v>
@@ -15997,10 +16009,10 @@
         <v>112</v>
       </c>
       <c r="D85" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F85" s="7" t="b">
         <v>0</v>
@@ -16012,13 +16024,13 @@
         <v>41</v>
       </c>
       <c r="I85" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J85" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L85" s="7">
         <v>0</v>
@@ -16026,38 +16038,38 @@
       <c r="M85" s="7">
         <v>0</v>
       </c>
-      <c r="N85" s="4">
-        <v>1</v>
+      <c r="N85" s="7">
+        <v>0</v>
       </c>
       <c r="O85" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P85" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="Q85" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="R85" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="S85" s="5" t="s">
-        <v>158</v>
+      <c r="Q85" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="R85" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="S85" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="T85" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U85" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V85" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="W85" s="4" t="s">
-        <v>170</v>
+      <c r="W85" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="X85" s="5" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="Y85" s="7" t="b">
         <v>0</v>
@@ -16069,15 +16081,15 @@
         <v>158</v>
       </c>
       <c r="AB85" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC85" s="7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AC85" s="4">
+        <v>6</v>
       </c>
       <c r="AD85" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE85" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE85" s="4">
         <v>0</v>
       </c>
       <c r="AF85" s="2" t="b">
@@ -16115,16 +16127,16 @@
     </row>
     <row r="86" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B86" s="7" t="b">
         <v>1</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D86" s="7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>40</v>
@@ -16133,19 +16145,19 @@
         <v>0</v>
       </c>
       <c r="G86" s="4">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="I86" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J86" s="7">
         <v>0</v>
       </c>
       <c r="K86" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L86" s="7">
         <v>0</v>
@@ -16153,8 +16165,8 @@
       <c r="M86" s="7">
         <v>0</v>
       </c>
-      <c r="N86" s="7">
-        <v>0</v>
+      <c r="N86" s="4">
+        <v>1</v>
       </c>
       <c r="O86" s="7" t="b">
         <v>0</v>
@@ -16162,8 +16174,8 @@
       <c r="P86" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="Q86" s="5" t="s">
-        <v>158</v>
+      <c r="Q86" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="R86" s="5" t="s">
         <v>158</v>
@@ -16172,19 +16184,19 @@
         <v>158</v>
       </c>
       <c r="T86" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U86" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V86" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="W86" s="5" t="s">
-        <v>158</v>
+      <c r="W86" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="X86" s="5" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Y86" s="7" t="b">
         <v>0</v>
@@ -16242,19 +16254,19 @@
     </row>
     <row r="87" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B87" s="7" t="b">
         <v>1</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D87" s="7">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F87" s="7" t="b">
         <v>0</v>
@@ -16263,46 +16275,46 @@
         <v>34</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="I87" s="7">
-        <v>8</v>
-      </c>
-      <c r="J87" s="4">
-        <v>8</v>
-      </c>
-      <c r="K87" s="4">
-        <v>0</v>
-      </c>
-      <c r="L87" s="4">
-        <v>8</v>
-      </c>
-      <c r="M87" s="4">
-        <v>8</v>
-      </c>
-      <c r="N87" s="4">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J87" s="7">
+        <v>0</v>
+      </c>
+      <c r="K87" s="7">
+        <v>0</v>
+      </c>
+      <c r="L87" s="7">
+        <v>0</v>
+      </c>
+      <c r="M87" s="7">
+        <v>0</v>
+      </c>
+      <c r="N87" s="7">
+        <v>0</v>
       </c>
       <c r="O87" s="7" t="b">
         <v>0</v>
       </c>
       <c r="P87" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q87" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="R87" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="S87" s="4" t="s">
-        <v>229</v>
+        <v>0</v>
+      </c>
+      <c r="Q87" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="R87" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="S87" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="T87" s="7" t="b">
         <v>0</v>
       </c>
       <c r="U87" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V87" s="7" t="b">
         <v>0</v>
@@ -16369,7 +16381,7 @@
     </row>
     <row r="88" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B88" s="7" t="b">
         <v>1</v>
@@ -16378,52 +16390,52 @@
         <v>112</v>
       </c>
       <c r="D88" s="7">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F88" s="7" t="b">
         <v>0</v>
       </c>
       <c r="G88" s="4">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H88" s="7" t="s">
         <v>41</v>
       </c>
       <c r="I88" s="7">
-        <v>1</v>
-      </c>
-      <c r="J88" s="7">
-        <v>1</v>
-      </c>
-      <c r="K88" s="7">
-        <v>0</v>
-      </c>
-      <c r="L88" s="7">
-        <v>0</v>
-      </c>
-      <c r="M88" s="7">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="J88" s="4">
+        <v>8</v>
+      </c>
+      <c r="K88" s="4">
+        <v>0</v>
+      </c>
+      <c r="L88" s="4">
+        <v>8</v>
+      </c>
+      <c r="M88" s="4">
+        <v>8</v>
       </c>
       <c r="N88" s="4">
         <v>1</v>
       </c>
       <c r="O88" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P88" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="5" t="s">
-        <v>158</v>
+        <v>1</v>
+      </c>
+      <c r="Q88" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="R88" s="4" t="s">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c r="S88" s="4" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="T88" s="7" t="b">
         <v>0</v>
@@ -16489,14 +16501,14 @@
         <v>0</v>
       </c>
       <c r="AO88" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP88" s="5"/>
       <c r="AQ88"/>
     </row>
     <row r="89" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="B89" s="7" t="b">
         <v>1</v>
@@ -16511,7 +16523,7 @@
         <v>40</v>
       </c>
       <c r="F89" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" s="4">
         <v>17</v>
@@ -16623,7 +16635,7 @@
     </row>
     <row r="90" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="B90" s="7" t="b">
         <v>1</v>
@@ -16632,16 +16644,16 @@
         <v>112</v>
       </c>
       <c r="D90" s="7">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F90" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" s="4">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H90" s="7" t="s">
         <v>41</v>
@@ -16674,10 +16686,10 @@
         <v>158</v>
       </c>
       <c r="R90" s="4" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="S90" s="4" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="T90" s="7" t="b">
         <v>0</v>
@@ -16750,7 +16762,7 @@
     </row>
     <row r="91" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B91" s="7" t="b">
         <v>1</v>
@@ -16759,16 +16771,16 @@
         <v>112</v>
       </c>
       <c r="D91" s="7">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F91" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" s="4">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H91" s="7" t="s">
         <v>41</v>
@@ -16801,10 +16813,10 @@
         <v>158</v>
       </c>
       <c r="R91" s="4" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
       <c r="S91" s="4" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="T91" s="7" t="b">
         <v>0</v>
@@ -16813,7 +16825,7 @@
         <v>0</v>
       </c>
       <c r="V91" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W91" s="5" t="s">
         <v>158</v>
@@ -16870,14 +16882,14 @@
         <v>0</v>
       </c>
       <c r="AO91" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP91" s="5"/>
       <c r="AQ91"/>
     </row>
     <row r="92" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B92" s="7" t="b">
         <v>1</v>
@@ -16886,28 +16898,28 @@
         <v>112</v>
       </c>
       <c r="D92" s="7">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F92" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" s="4">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I92" s="7">
         <v>1</v>
       </c>
       <c r="J92" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L92" s="7">
         <v>0</v>
@@ -16915,38 +16927,38 @@
       <c r="M92" s="7">
         <v>0</v>
       </c>
-      <c r="N92" s="7">
-        <v>0</v>
+      <c r="N92" s="4">
+        <v>1</v>
       </c>
       <c r="O92" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P92" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="Q92" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="R92" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="S92" s="5" t="s">
-        <v>158</v>
+      <c r="Q92" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="R92" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="S92" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="T92" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U92" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V92" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="W92" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="X92" s="4" t="s">
-        <v>178</v>
+        <v>1</v>
+      </c>
+      <c r="W92" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="X92" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="Y92" s="7" t="b">
         <v>0</v>
@@ -17004,7 +17016,7 @@
     </row>
     <row r="93" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B93" s="7" t="b">
         <v>1</v>
@@ -17013,28 +17025,28 @@
         <v>112</v>
       </c>
       <c r="D93" s="7">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F93" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93" s="4">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I93" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J93" s="7">
         <v>0</v>
       </c>
       <c r="K93" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L93" s="7">
         <v>0</v>
@@ -17042,8 +17054,8 @@
       <c r="M93" s="7">
         <v>0</v>
       </c>
-      <c r="N93" s="4">
-        <v>1</v>
+      <c r="N93" s="7">
+        <v>0</v>
       </c>
       <c r="O93" s="7" t="b">
         <v>0</v>
@@ -17052,7 +17064,7 @@
         <v>0</v>
       </c>
       <c r="Q93" s="4" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="R93" s="5" t="s">
         <v>158</v>
@@ -17070,10 +17082,10 @@
         <v>0</v>
       </c>
       <c r="W93" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="X93" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Y93" s="7" t="b">
         <v>0</v>
@@ -17124,14 +17136,14 @@
         <v>0</v>
       </c>
       <c r="AO93" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP93" s="5"/>
       <c r="AQ93"/>
     </row>
     <row r="94" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B94" s="7" t="b">
         <v>1</v>
@@ -17140,28 +17152,28 @@
         <v>112</v>
       </c>
       <c r="D94" s="7">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F94" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G94" s="4">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="H94" s="7" t="s">
         <v>41</v>
       </c>
       <c r="I94" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J94" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L94" s="7">
         <v>0</v>
@@ -17170,37 +17182,37 @@
         <v>0</v>
       </c>
       <c r="N94" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O94" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P94" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="Q94" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="R94" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="S94" s="4" t="s">
-        <v>227</v>
+      <c r="Q94" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="R94" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="S94" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="T94" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U94" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V94" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="W94" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="X94" s="5" t="s">
-        <v>158</v>
+      <c r="W94" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="X94" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="Y94" s="7" t="b">
         <v>0</v>
@@ -17251,14 +17263,14 @@
         <v>0</v>
       </c>
       <c r="AO94" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP94" s="5"/>
       <c r="AQ94"/>
     </row>
     <row r="95" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B95" s="7" t="b">
         <v>1</v>
@@ -17267,58 +17279,58 @@
         <v>112</v>
       </c>
       <c r="D95" s="7">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F95" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" s="4">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I95" s="7">
-        <v>4</v>
-      </c>
-      <c r="J95" s="4">
-        <v>4</v>
-      </c>
-      <c r="K95" s="4">
-        <v>0</v>
-      </c>
-      <c r="L95" s="4">
-        <v>7</v>
-      </c>
-      <c r="M95" s="4">
-        <v>7</v>
-      </c>
-      <c r="N95" s="7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J95" s="7">
+        <v>1</v>
+      </c>
+      <c r="K95" s="7">
+        <v>0</v>
+      </c>
+      <c r="L95" s="7">
+        <v>0</v>
+      </c>
+      <c r="M95" s="7">
+        <v>0</v>
+      </c>
+      <c r="N95" s="4">
+        <v>2</v>
       </c>
       <c r="O95" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P95" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q95" s="4" t="s">
-        <v>207</v>
+        <v>0</v>
+      </c>
+      <c r="Q95" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="R95" s="4" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="S95" s="4" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="T95" s="7" t="b">
         <v>0</v>
       </c>
       <c r="U95" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V95" s="7" t="b">
         <v>0</v>
@@ -17385,7 +17397,7 @@
     </row>
     <row r="96" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B96" s="7" t="b">
         <v>1</v>
@@ -17394,67 +17406,67 @@
         <v>112</v>
       </c>
       <c r="D96" s="7">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>51</v>
       </c>
       <c r="F96" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96" s="4">
         <v>100</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I96" s="7">
-        <v>16</v>
-      </c>
-      <c r="J96" s="7">
-        <v>0</v>
-      </c>
-      <c r="K96" s="7">
-        <v>16</v>
-      </c>
-      <c r="L96" s="7">
-        <v>0</v>
-      </c>
-      <c r="M96" s="7">
-        <v>0</v>
-      </c>
-      <c r="N96" s="4">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="J96" s="4">
+        <v>4</v>
+      </c>
+      <c r="K96" s="4">
+        <v>0</v>
+      </c>
+      <c r="L96" s="4">
+        <v>7</v>
+      </c>
+      <c r="M96" s="4">
+        <v>7</v>
+      </c>
+      <c r="N96" s="7">
+        <v>0</v>
       </c>
       <c r="O96" s="7" t="b">
         <v>0</v>
       </c>
       <c r="P96" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q96" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="R96" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="S96" s="5" t="s">
-        <v>158</v>
+        <v>207</v>
+      </c>
+      <c r="R96" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="S96" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="T96" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U96" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V96" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="W96" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="X96" s="4" t="s">
-        <v>182</v>
+      <c r="W96" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="X96" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="Y96" s="7" t="b">
         <v>0</v>
@@ -17493,13 +17505,13 @@
         <v>0</v>
       </c>
       <c r="AK96" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL96" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AM96" s="7">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AN96" s="7" t="b">
         <v>0</v>
@@ -17510,308 +17522,308 @@
       <c r="AP96" s="5"/>
       <c r="AQ96"/>
     </row>
-    <row r="97" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
-      <c r="P97" s="2"/>
-      <c r="Q97" s="2"/>
-      <c r="R97" s="2"/>
-      <c r="S97" s="2"/>
-      <c r="T97" s="2"/>
-      <c r="U97" s="2"/>
-      <c r="V97" s="2"/>
-      <c r="W97" s="2"/>
-      <c r="X97" s="2"/>
-      <c r="Y97" s="2"/>
-      <c r="Z97" s="2"/>
-      <c r="AA97" s="2"/>
-      <c r="AB97" s="2"/>
-      <c r="AC97" s="2"/>
-      <c r="AD97" s="2"/>
-      <c r="AE97" s="2"/>
-      <c r="AF97" s="2"/>
-      <c r="AG97" s="2"/>
-      <c r="AH97" s="2"/>
-      <c r="AI97" s="2"/>
-      <c r="AJ97" s="2"/>
-      <c r="AK97" s="2"/>
-      <c r="AL97" s="2"/>
-      <c r="AM97" s="2"/>
-      <c r="AN97" s="2"/>
-      <c r="AO97" s="16"/>
-      <c r="AP97" s="16"/>
-      <c r="AQ97" s="16"/>
+    <row r="97" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A97" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B97" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D97" s="7">
+        <v>85</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F97" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G97" s="4">
+        <v>100</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I97" s="7">
+        <v>16</v>
+      </c>
+      <c r="J97" s="7">
+        <v>0</v>
+      </c>
+      <c r="K97" s="7">
+        <v>16</v>
+      </c>
+      <c r="L97" s="7">
+        <v>0</v>
+      </c>
+      <c r="M97" s="7">
+        <v>0</v>
+      </c>
+      <c r="N97" s="4">
+        <v>3</v>
+      </c>
+      <c r="O97" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P97" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="R97" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="S97" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="T97" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U97" s="7">
+        <v>1</v>
+      </c>
+      <c r="V97" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="W97" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="X97" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y97" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA97" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB97" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF97" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG97" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH97" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI97" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ97" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK97" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL97" s="7">
+        <v>50</v>
+      </c>
+      <c r="AM97" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="AN97" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO97" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP97" s="5"/>
+      <c r="AQ97"/>
     </row>
-    <row r="98" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D98" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E98" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F98" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G98" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H98" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I98" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J98" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K98" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L98" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="M98" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="N98" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="O98" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="P98" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q98" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="R98" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="S98" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="T98" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="U98" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="V98" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="W98" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="X98" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y98" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z98" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA98" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB98" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC98" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD98" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE98" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF98" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG98" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="AH98" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="AI98" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ98" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK98" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL98" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="AM98" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN98" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO98" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="AP98" s="18"/>
-      <c r="AQ98"/>
+    <row r="98" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2"/>
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+      <c r="U98" s="2"/>
+      <c r="V98" s="2"/>
+      <c r="W98" s="2"/>
+      <c r="X98" s="2"/>
+      <c r="Y98" s="2"/>
+      <c r="Z98" s="2"/>
+      <c r="AA98" s="2"/>
+      <c r="AB98" s="2"/>
+      <c r="AC98" s="2"/>
+      <c r="AD98" s="2"/>
+      <c r="AE98" s="2"/>
+      <c r="AF98" s="2"/>
+      <c r="AG98" s="2"/>
+      <c r="AH98" s="2"/>
+      <c r="AI98" s="2"/>
+      <c r="AJ98" s="2"/>
+      <c r="AK98" s="2"/>
+      <c r="AL98" s="2"/>
+      <c r="AM98" s="2"/>
+      <c r="AN98" s="2"/>
+      <c r="AO98" s="16"/>
+      <c r="AP98" s="16"/>
+      <c r="AQ98" s="16"/>
     </row>
     <row r="99" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="B99" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D99" s="7">
+        <v>0</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H99" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I99" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J99" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K99" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E99" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F99" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G99" s="4">
-        <v>50</v>
-      </c>
-      <c r="H99" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I99" s="7">
-        <v>1</v>
-      </c>
-      <c r="J99" s="7">
-        <v>1</v>
-      </c>
-      <c r="K99" s="7">
-        <v>0</v>
-      </c>
-      <c r="L99" s="7">
-        <v>0</v>
-      </c>
-      <c r="M99" s="7">
-        <v>0</v>
-      </c>
-      <c r="N99" s="7">
-        <v>0</v>
-      </c>
-      <c r="O99" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="P99" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="R99" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="S99" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="T99" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="U99" s="7">
-        <v>0</v>
-      </c>
-      <c r="V99" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="W99" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="X99" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y99" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z99" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA99" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB99" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC99" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD99" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE99" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF99" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG99" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH99" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI99" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ99" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK99" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL99" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM99" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN99" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO99" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP99" s="5"/>
+      <c r="L99" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M99" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N99" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O99" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P99" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q99" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="R99" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="S99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T99" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="U99" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="V99" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="W99" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="X99" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y99" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z99" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA99" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB99" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC99" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD99" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE99" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF99" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG99" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH99" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI99" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ99" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK99" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL99" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM99" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN99" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO99" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP99" s="18"/>
       <c r="AQ99"/>
     </row>
     <row r="100" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B100" s="7" t="b">
         <v>1</v>
@@ -17820,16 +17832,16 @@
         <v>139</v>
       </c>
       <c r="D100" s="7">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F100" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" s="4">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H100" s="7" t="s">
         <v>101</v>
@@ -17862,10 +17874,10 @@
         <v>158</v>
       </c>
       <c r="R100" s="4" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="S100" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="T100" s="7" t="b">
         <v>0</v>
@@ -17936,308 +17948,308 @@
       <c r="AP100" s="5"/>
       <c r="AQ100"/>
     </row>
-    <row r="101" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
-      <c r="P101" s="2"/>
-      <c r="Q101" s="2"/>
-      <c r="R101" s="2"/>
-      <c r="S101" s="2"/>
-      <c r="T101" s="2"/>
-      <c r="U101" s="2"/>
-      <c r="V101" s="2"/>
-      <c r="W101" s="2"/>
-      <c r="X101" s="2"/>
-      <c r="Y101" s="2"/>
-      <c r="Z101" s="2"/>
-      <c r="AA101" s="2"/>
-      <c r="AB101" s="2"/>
-      <c r="AC101" s="2"/>
-      <c r="AD101" s="2"/>
-      <c r="AE101" s="2"/>
-      <c r="AF101" s="2"/>
-      <c r="AG101" s="2"/>
-      <c r="AH101" s="2"/>
-      <c r="AI101" s="2"/>
-      <c r="AJ101" s="2"/>
-      <c r="AK101" s="2"/>
-      <c r="AL101" s="2"/>
-      <c r="AM101" s="2"/>
-      <c r="AN101" s="2"/>
-      <c r="AO101" s="16"/>
-      <c r="AP101" s="16"/>
-      <c r="AQ101" s="16"/>
+    <row r="101" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B101" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D101" s="7">
+        <v>50</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F101" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G101" s="4">
+        <v>25</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I101" s="7">
+        <v>1</v>
+      </c>
+      <c r="J101" s="7">
+        <v>1</v>
+      </c>
+      <c r="K101" s="7">
+        <v>0</v>
+      </c>
+      <c r="L101" s="7">
+        <v>0</v>
+      </c>
+      <c r="M101" s="7">
+        <v>0</v>
+      </c>
+      <c r="N101" s="7">
+        <v>0</v>
+      </c>
+      <c r="O101" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P101" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="R101" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="S101" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="T101" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="U101" s="7">
+        <v>0</v>
+      </c>
+      <c r="V101" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="W101" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="X101" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y101" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA101" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB101" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF101" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG101" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH101" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI101" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ101" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK101" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL101" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM101" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN101" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO101" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP101" s="5"/>
+      <c r="AQ101"/>
     </row>
-    <row r="102" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D102" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F102" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H102" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I102" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J102" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K102" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L102" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M102" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N102" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="O102" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="P102" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q102" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="R102" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="S102" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="T102" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="U102" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="V102" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W102" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="X102" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y102" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z102" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA102" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB102" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC102" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD102" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE102" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF102" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="AG102" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH102" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="AI102" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="AJ102" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK102" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL102" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AM102" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN102" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO102" s="12" t="s">
-        <v>37</v>
-      </c>
+    <row r="102" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
+      <c r="Q102" s="2"/>
+      <c r="R102" s="2"/>
+      <c r="S102" s="2"/>
+      <c r="T102" s="2"/>
+      <c r="U102" s="2"/>
+      <c r="V102" s="2"/>
+      <c r="W102" s="2"/>
+      <c r="X102" s="2"/>
+      <c r="Y102" s="2"/>
+      <c r="Z102" s="2"/>
+      <c r="AA102" s="2"/>
+      <c r="AB102" s="2"/>
+      <c r="AC102" s="2"/>
+      <c r="AD102" s="2"/>
+      <c r="AE102" s="2"/>
+      <c r="AF102" s="2"/>
+      <c r="AG102" s="2"/>
+      <c r="AH102" s="2"/>
+      <c r="AI102" s="2"/>
+      <c r="AJ102" s="2"/>
+      <c r="AK102" s="2"/>
+      <c r="AL102" s="2"/>
+      <c r="AM102" s="2"/>
+      <c r="AN102" s="2"/>
+      <c r="AO102" s="16"/>
       <c r="AP102" s="16"/>
-      <c r="AQ102"/>
+      <c r="AQ102" s="16"/>
     </row>
     <row r="103" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B103" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="C103" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="D103" s="26">
+        <v>0</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E103" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="F103" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="G103" s="27">
-        <v>40</v>
-      </c>
-      <c r="H103" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="I103" s="26">
-        <v>0</v>
-      </c>
-      <c r="J103" s="26">
-        <v>0</v>
-      </c>
-      <c r="K103" s="26">
-        <v>0</v>
-      </c>
-      <c r="L103" s="26">
-        <v>0</v>
-      </c>
-      <c r="M103" s="26">
-        <v>0</v>
-      </c>
-      <c r="N103" s="26">
-        <v>0</v>
-      </c>
-      <c r="O103" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="P103" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q103" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="R103" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="S103" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="T103" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="U103" s="26">
-        <v>0</v>
-      </c>
-      <c r="V103" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="W103" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="X103" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y103" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z103" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA103" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB103" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC103" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD103" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE103" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF103" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG103" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH103" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI103" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ103" s="26">
-        <v>0</v>
-      </c>
-      <c r="AK103" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL103" s="26">
-        <v>0</v>
-      </c>
-      <c r="AM103" s="26">
-        <v>0</v>
-      </c>
-      <c r="AN103" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO103" s="26" t="b">
-        <v>0</v>
+      <c r="E103" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G103" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H103" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I103" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J103" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K103" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L103" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M103" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N103" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O103" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P103" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q103" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="R103" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="S103" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="T103" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="U103" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="V103" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W103" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="X103" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y103" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z103" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA103" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB103" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC103" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD103" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE103" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF103" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG103" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH103" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI103" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ103" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK103" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL103" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM103" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN103" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO103" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="AP103" s="16"/>
       <c r="AQ103"/>
     </row>
     <row r="104" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B104" s="26" t="b">
         <v>1</v>
@@ -18246,7 +18258,7 @@
         <v>142</v>
       </c>
       <c r="D104" s="26">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E104" s="26" t="s">
         <v>40</v>
@@ -18255,16 +18267,16 @@
         <v>0</v>
       </c>
       <c r="G104" s="27">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H104" s="26" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="I104" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K104" s="26">
         <v>0</v>
@@ -18279,7 +18291,7 @@
         <v>0</v>
       </c>
       <c r="O104" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P104" s="26" t="b">
         <v>0</v>
@@ -18287,11 +18299,11 @@
       <c r="Q104" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="R104" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="S104" s="29" t="s">
-        <v>165</v>
+      <c r="R104" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="S104" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="T104" s="26" t="b">
         <v>0</v>
@@ -18364,69 +18376,69 @@
     </row>
     <row r="105" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B105" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="C105" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B105" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D105" s="27">
-        <v>34</v>
-      </c>
-      <c r="E105" s="27" t="s">
+      <c r="D105" s="26">
+        <v>8</v>
+      </c>
+      <c r="E105" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F105" s="27" t="b">
+      <c r="F105" s="26" t="b">
         <v>0</v>
       </c>
       <c r="G105" s="27">
-        <v>50</v>
-      </c>
-      <c r="H105" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="I105" s="27">
-        <v>0</v>
-      </c>
-      <c r="J105" s="27">
-        <v>0</v>
-      </c>
-      <c r="K105" s="27">
-        <v>0</v>
-      </c>
-      <c r="L105" s="27">
-        <v>0</v>
-      </c>
-      <c r="M105" s="27">
+        <v>25</v>
+      </c>
+      <c r="H105" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="I105" s="26">
+        <v>1</v>
+      </c>
+      <c r="J105" s="26">
+        <v>1</v>
+      </c>
+      <c r="K105" s="26">
+        <v>0</v>
+      </c>
+      <c r="L105" s="26">
+        <v>0</v>
+      </c>
+      <c r="M105" s="26">
         <v>0</v>
       </c>
       <c r="N105" s="26">
         <v>0</v>
       </c>
-      <c r="O105" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="P105" s="27" t="b">
+      <c r="O105" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="P105" s="26" t="b">
         <v>0</v>
       </c>
       <c r="Q105" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="R105" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="S105" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="T105" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="U105" s="27">
-        <v>0</v>
-      </c>
-      <c r="V105" s="27" t="b">
+      <c r="R105" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="S105" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="T105" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="U105" s="26">
+        <v>0</v>
+      </c>
+      <c r="V105" s="26" t="b">
         <v>0</v>
       </c>
       <c r="W105" s="3" t="s">
@@ -18435,7 +18447,7 @@
       <c r="X105" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="Y105" s="27" t="b">
+      <c r="Y105" s="26" t="b">
         <v>0</v>
       </c>
       <c r="Z105" s="3" t="s">
@@ -18444,16 +18456,16 @@
       <c r="AA105" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="AB105" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC105" s="27">
-        <v>0</v>
-      </c>
-      <c r="AD105" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE105" s="27">
+      <c r="AB105" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC105" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD105" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE105" s="26">
         <v>0</v>
       </c>
       <c r="AF105" s="28" t="b">
@@ -18477,13 +18489,13 @@
       <c r="AL105" s="26">
         <v>0</v>
       </c>
-      <c r="AM105" s="27">
-        <v>0</v>
-      </c>
-      <c r="AN105" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO105" s="27" t="b">
+      <c r="AM105" s="26">
+        <v>0</v>
+      </c>
+      <c r="AN105" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO105" s="26" t="b">
         <v>0</v>
       </c>
       <c r="AP105" s="16"/>
@@ -18491,69 +18503,69 @@
     </row>
     <row r="106" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B106" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="C106" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B106" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D106" s="26">
-        <v>55</v>
-      </c>
-      <c r="E106" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="F106" s="26" t="b">
+      <c r="D106" s="27">
+        <v>34</v>
+      </c>
+      <c r="E106" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F106" s="27" t="b">
         <v>0</v>
       </c>
       <c r="G106" s="27">
         <v>50</v>
       </c>
-      <c r="H106" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="I106" s="26">
-        <v>1</v>
-      </c>
-      <c r="J106" s="26">
-        <v>1</v>
-      </c>
-      <c r="K106" s="26">
-        <v>0</v>
-      </c>
-      <c r="L106" s="26">
-        <v>0</v>
-      </c>
-      <c r="M106" s="26">
+      <c r="H106" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="I106" s="27">
+        <v>0</v>
+      </c>
+      <c r="J106" s="27">
+        <v>0</v>
+      </c>
+      <c r="K106" s="27">
+        <v>0</v>
+      </c>
+      <c r="L106" s="27">
+        <v>0</v>
+      </c>
+      <c r="M106" s="27">
         <v>0</v>
       </c>
       <c r="N106" s="26">
         <v>0</v>
       </c>
-      <c r="O106" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="P106" s="26" t="b">
+      <c r="O106" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="P106" s="27" t="b">
         <v>0</v>
       </c>
       <c r="Q106" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="R106" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="S106" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="T106" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="U106" s="26">
-        <v>0</v>
-      </c>
-      <c r="V106" s="26" t="b">
+      <c r="R106" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="S106" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="T106" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="U106" s="27">
+        <v>0</v>
+      </c>
+      <c r="V106" s="27" t="b">
         <v>0</v>
       </c>
       <c r="W106" s="3" t="s">
@@ -18562,7 +18574,7 @@
       <c r="X106" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="Y106" s="26" t="b">
+      <c r="Y106" s="27" t="b">
         <v>0</v>
       </c>
       <c r="Z106" s="3" t="s">
@@ -18571,16 +18583,16 @@
       <c r="AA106" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="AB106" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC106" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD106" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE106" s="26">
+      <c r="AB106" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC106" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD106" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE106" s="27">
         <v>0</v>
       </c>
       <c r="AF106" s="28" t="b">
@@ -18604,13 +18616,13 @@
       <c r="AL106" s="26">
         <v>0</v>
       </c>
-      <c r="AM106" s="26">
-        <v>0</v>
-      </c>
-      <c r="AN106" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO106" s="26" t="b">
+      <c r="AM106" s="27">
+        <v>0</v>
+      </c>
+      <c r="AN106" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO106" s="27" t="b">
         <v>0</v>
       </c>
       <c r="AP106" s="16"/>
@@ -18618,7 +18630,7 @@
     </row>
     <row r="107" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B107" s="26" t="b">
         <v>1</v>
@@ -18627,7 +18639,7 @@
         <v>142</v>
       </c>
       <c r="D107" s="26">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="E107" s="26" t="s">
         <v>49</v>
@@ -18636,16 +18648,16 @@
         <v>0</v>
       </c>
       <c r="G107" s="27">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H107" s="26" t="s">
         <v>41</v>
       </c>
       <c r="I107" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K107" s="26">
         <v>0</v>
@@ -18660,7 +18672,7 @@
         <v>0</v>
       </c>
       <c r="O107" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P107" s="26" t="b">
         <v>0</v>
@@ -18668,11 +18680,11 @@
       <c r="Q107" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="R107" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="S107" s="3" t="s">
-        <v>158</v>
+      <c r="R107" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="S107" s="29" t="s">
+        <v>165</v>
       </c>
       <c r="T107" s="26" t="b">
         <v>0</v>
@@ -18743,50 +18755,132 @@
       <c r="AP107" s="16"/>
       <c r="AQ107"/>
     </row>
-    <row r="108" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
-      <c r="P108" s="2"/>
-      <c r="Q108" s="2"/>
-      <c r="R108" s="2"/>
-      <c r="S108" s="2"/>
-      <c r="T108" s="2"/>
-      <c r="U108" s="2"/>
-      <c r="V108" s="2"/>
-      <c r="W108" s="2"/>
-      <c r="X108" s="2"/>
-      <c r="Y108" s="2"/>
-      <c r="Z108" s="2"/>
-      <c r="AA108" s="2"/>
-      <c r="AB108" s="2"/>
-      <c r="AC108" s="2"/>
-      <c r="AD108" s="2"/>
-      <c r="AE108" s="2"/>
-      <c r="AF108" s="2"/>
-      <c r="AG108" s="2"/>
-      <c r="AH108" s="2"/>
-      <c r="AI108" s="2"/>
-      <c r="AJ108" s="2"/>
-      <c r="AK108" s="2"/>
-      <c r="AL108" s="2"/>
-      <c r="AM108" s="2"/>
-      <c r="AN108" s="2"/>
-      <c r="AO108" s="16"/>
+    <row r="108" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A108" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B108" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D108" s="26">
+        <v>1</v>
+      </c>
+      <c r="E108" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F108" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G108" s="27">
+        <v>100</v>
+      </c>
+      <c r="H108" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I108" s="26">
+        <v>0</v>
+      </c>
+      <c r="J108" s="26">
+        <v>0</v>
+      </c>
+      <c r="K108" s="26">
+        <v>0</v>
+      </c>
+      <c r="L108" s="26">
+        <v>0</v>
+      </c>
+      <c r="M108" s="26">
+        <v>0</v>
+      </c>
+      <c r="N108" s="26">
+        <v>0</v>
+      </c>
+      <c r="O108" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="P108" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="R108" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="S108" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="T108" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="U108" s="26">
+        <v>0</v>
+      </c>
+      <c r="V108" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="W108" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="X108" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y108" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z108" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA108" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB108" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC108" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD108" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE108" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF108" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG108" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH108" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI108" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ108" s="26">
+        <v>0</v>
+      </c>
+      <c r="AK108" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL108" s="26">
+        <v>0</v>
+      </c>
+      <c r="AM108" s="26">
+        <v>0</v>
+      </c>
+      <c r="AN108" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO108" s="26" t="b">
+        <v>0</v>
+      </c>
       <c r="AP108" s="16"/>
-      <c r="AQ108" s="16"/>
+      <c r="AQ108"/>
     </row>
     <row r="109" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
@@ -18878,6 +18972,51 @@
       <c r="AP110" s="16"/>
       <c r="AQ110" s="16"/>
     </row>
+    <row r="111" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+      <c r="P111" s="2"/>
+      <c r="Q111" s="2"/>
+      <c r="R111" s="2"/>
+      <c r="S111" s="2"/>
+      <c r="T111" s="2"/>
+      <c r="U111" s="2"/>
+      <c r="V111" s="2"/>
+      <c r="W111" s="2"/>
+      <c r="X111" s="2"/>
+      <c r="Y111" s="2"/>
+      <c r="Z111" s="2"/>
+      <c r="AA111" s="2"/>
+      <c r="AB111" s="2"/>
+      <c r="AC111" s="2"/>
+      <c r="AD111" s="2"/>
+      <c r="AE111" s="2"/>
+      <c r="AF111" s="2"/>
+      <c r="AG111" s="2"/>
+      <c r="AH111" s="2"/>
+      <c r="AI111" s="2"/>
+      <c r="AJ111" s="2"/>
+      <c r="AK111" s="2"/>
+      <c r="AL111" s="2"/>
+      <c r="AM111" s="2"/>
+      <c r="AN111" s="2"/>
+      <c r="AO111" s="16"/>
+      <c r="AP111" s="16"/>
+      <c r="AQ111" s="16"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="R26:S27 R2:S6">
@@ -18930,7 +19069,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z43:AA67">
+  <conditionalFormatting sqref="Z43:AA68">
     <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="min"/>
@@ -18940,7 +19079,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z70:AA70">
+  <conditionalFormatting sqref="Z71:AA71">
     <cfRule type="colorScale" priority="105">
       <colorScale>
         <cfvo type="min"/>
@@ -18950,7 +19089,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z72:AA96">
+  <conditionalFormatting sqref="Z73:AA97">
     <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
@@ -18960,7 +19099,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z99:AA99">
+  <conditionalFormatting sqref="Z100:AA100">
     <cfRule type="colorScale" priority="103">
       <colorScale>
         <cfvo type="min"/>
@@ -18970,7 +19109,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z100:AA100">
+  <conditionalFormatting sqref="Z101:AA101">
     <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="min"/>
@@ -18980,7 +19119,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z103:AA107">
+  <conditionalFormatting sqref="Z104:AA108">
     <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
@@ -19040,7 +19179,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG42:AH67">
+  <conditionalFormatting sqref="AG42:AH68">
     <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
@@ -19050,7 +19189,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG70:AH96">
+  <conditionalFormatting sqref="AG71:AH97">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
@@ -19060,7 +19199,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG99:AH99">
+  <conditionalFormatting sqref="AG100:AH100">
     <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
@@ -19070,7 +19209,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG100:AH100">
+  <conditionalFormatting sqref="AG101:AH101">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
@@ -19080,7 +19219,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG103:AH107">
+  <conditionalFormatting sqref="AG104:AH108">
     <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
@@ -19150,7 +19289,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W44:X55">
+  <conditionalFormatting sqref="W44:X56">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
@@ -19160,7 +19299,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W57:X63">
+  <conditionalFormatting sqref="W58:X64">
     <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
@@ -19170,7 +19309,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W65:X65">
+  <conditionalFormatting sqref="W66:X66">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
@@ -19180,7 +19319,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W66:X66">
+  <conditionalFormatting sqref="W67:X67">
     <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
@@ -19190,7 +19329,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W70:X70">
+  <conditionalFormatting sqref="W71:X71">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
@@ -19200,7 +19339,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W71:X71">
+  <conditionalFormatting sqref="W72:X72">
     <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
@@ -19210,7 +19349,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W73:X76">
+  <conditionalFormatting sqref="W74:X77">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
@@ -19220,7 +19359,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W78:X78">
+  <conditionalFormatting sqref="W79:X79">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
@@ -19230,7 +19369,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W79:X79">
+  <conditionalFormatting sqref="W80:X80">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -19240,7 +19379,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W80:X80">
+  <conditionalFormatting sqref="W81:X81">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -19250,7 +19389,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W82:X82">
+  <conditionalFormatting sqref="W83:X83">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -19260,7 +19399,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W83:X83">
+  <conditionalFormatting sqref="W84:X84">
     <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
@@ -19270,7 +19409,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W84:X84">
+  <conditionalFormatting sqref="W85:X85">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
@@ -19280,7 +19419,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W86:X91">
+  <conditionalFormatting sqref="W87:X92">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
@@ -19290,7 +19429,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W94:X94">
+  <conditionalFormatting sqref="W95:X95">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
@@ -19300,7 +19439,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W95:X95">
+  <conditionalFormatting sqref="W96:X96">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
@@ -19310,7 +19449,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W99:X99">
+  <conditionalFormatting sqref="W100:X100">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -19320,7 +19459,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W100:X100">
+  <conditionalFormatting sqref="W101:X101">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -19330,7 +19469,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W103:X107">
+  <conditionalFormatting sqref="W104:X108">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -19340,7 +19479,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R93:S93">
+  <conditionalFormatting sqref="R94:S94">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -19350,7 +19489,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R92:S92">
+  <conditionalFormatting sqref="R93:S93">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -19360,7 +19499,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R86:S86">
+  <conditionalFormatting sqref="R87:S87">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -19370,7 +19509,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R85:S85">
+  <conditionalFormatting sqref="R86:S86">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -19380,7 +19519,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R72:S72">
+  <conditionalFormatting sqref="R73:S73">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -19390,7 +19529,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R107:S107">
+  <conditionalFormatting sqref="R108:S108">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -19400,7 +19539,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R105:S105">
+  <conditionalFormatting sqref="R106:S106">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -19410,7 +19549,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R103:S103">
+  <conditionalFormatting sqref="R104:S104">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -19420,7 +19559,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R96:S96">
+  <conditionalFormatting sqref="R97:S97">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -19430,7 +19569,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R67:S67">
+  <conditionalFormatting sqref="R68:S68">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -19440,7 +19579,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R64:S64">
+  <conditionalFormatting sqref="R65:S65">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -19450,7 +19589,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R63:S63">
+  <conditionalFormatting sqref="R64:S64">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -19460,7 +19599,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R62:S62">
+  <conditionalFormatting sqref="R63:S63">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -19470,7 +19609,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R57:S57">
+  <conditionalFormatting sqref="R58:S58">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -19480,7 +19619,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R56:S56">
+  <conditionalFormatting sqref="R57:S57">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -19570,7 +19709,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R74:S74">
+  <conditionalFormatting sqref="R75:S75">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -19580,7 +19719,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R75:S75">
+  <conditionalFormatting sqref="R76:S76">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -19780,7 +19919,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q55">
+  <conditionalFormatting sqref="Q56">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -19790,7 +19929,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q57">
+  <conditionalFormatting sqref="Q58">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -19800,7 +19939,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q59">
+  <conditionalFormatting sqref="Q60">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -19810,7 +19949,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q60">
+  <conditionalFormatting sqref="Q61">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -19820,7 +19959,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q62">
+  <conditionalFormatting sqref="Q63">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -19830,7 +19969,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q63">
+  <conditionalFormatting sqref="Q64">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -19840,7 +19979,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q66">
+  <conditionalFormatting sqref="Q67">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -19850,7 +19989,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q71">
+  <conditionalFormatting sqref="Q72">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -19860,7 +19999,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q73">
+  <conditionalFormatting sqref="Q74">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -19870,7 +20009,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q75">
+  <conditionalFormatting sqref="Q76">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -19880,7 +20019,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q74">
+  <conditionalFormatting sqref="Q75">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -19890,7 +20029,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q78">
+  <conditionalFormatting sqref="Q79">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -19900,7 +20039,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q80">
+  <conditionalFormatting sqref="Q81">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -19910,7 +20049,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q82:Q84">
+  <conditionalFormatting sqref="Q83:Q85">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -19920,7 +20059,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q86">
+  <conditionalFormatting sqref="Q87">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -19930,7 +20069,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q88:Q91">
+  <conditionalFormatting sqref="Q89:Q92">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -19940,7 +20079,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q94">
+  <conditionalFormatting sqref="Q95">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -19950,7 +20089,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q99">
+  <conditionalFormatting sqref="Q100">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -19960,7 +20099,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q100">
+  <conditionalFormatting sqref="Q101">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -19980,7 +20119,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R95:S95">
+  <conditionalFormatting sqref="R96:S96">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/api/AbilityInfo.xlsx
+++ b/api/AbilityInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\RunescapeCalculator\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4058E33F-B571-4800-8F00-B84E89381EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D2D468-4F88-48B1-B2F6-5F3FB4E1B644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="345" yWindow="4635" windowWidth="37155" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -718,10 +718,10 @@
     <t>[0; 1; 2]</t>
   </si>
   <si>
-    <t>[0.869; 0.969; 1.069]</t>
-  </si>
-  <si>
-    <t>[0.217; 0.242; 0.267]</t>
+    <t>[0.79; 0.89; 0.99]</t>
+  </si>
+  <si>
+    <t>[0.158; 0.178; 0.198]</t>
   </si>
 </sst>
 </file>
@@ -5525,10 +5525,10 @@
   </sheetPr>
   <dimension ref="A1:AQ111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A46" sqref="A46"/>
-      <selection pane="topRight" activeCell="L58" sqref="L58"/>
+      <selection pane="topRight" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/api/AbilityInfo.xlsx
+++ b/api/AbilityInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\RunescapeCalculator\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D2D468-4F88-48B1-B2F6-5F3FB4E1B644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEC97A6-185F-4089-8323-318D75E97834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="4635" windowWidth="37155" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -5525,10 +5525,10 @@
   </sheetPr>
   <dimension ref="A1:AQ111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A46" sqref="A46"/>
-      <selection pane="topRight" activeCell="C52" sqref="C52"/>
+      <selection pane="topRight" activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11543,10 +11543,10 @@
         <v>0</v>
       </c>
       <c r="L49" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M49" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N49" s="4">
         <v>3</v>
@@ -13194,19 +13194,19 @@
         <v>0</v>
       </c>
       <c r="L62" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M62" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N62" s="7">
         <v>0</v>
       </c>
       <c r="O62" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P62" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62" s="4" t="s">
         <v>215</v>

--- a/api/AbilityInfo.xlsx
+++ b/api/AbilityInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\RunescapeCalculator\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65A4F53-94F4-4E86-B15D-CE9C53C98837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707FC2F0-AE36-43A7-BA54-D55767B8704C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="690" yWindow="4980" windowWidth="37155" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="242">
   <si>
     <t>Name</t>
   </si>
@@ -737,6 +737,15 @@
   </si>
   <si>
     <t>MaxTargets</t>
+  </si>
+  <si>
+    <t>Aftershock</t>
+  </si>
+  <si>
+    <t>[0.396]</t>
+  </si>
+  <si>
+    <t>[0.24]</t>
   </si>
 </sst>
 </file>
@@ -783,7 +792,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -868,6 +877,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor rgb="FFCC0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -881,7 +908,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -914,11 +941,2928 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="294">
+  <dxfs count="340">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -959,19 +3903,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -987,20 +3918,13 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1019,6 +3943,12 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1029,10 +3959,18 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1051,20 +3989,13 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1083,7 +4014,603 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1190,587 +4717,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1821,599 +4767,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2464,1298 +4817,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3816,6 +4877,498 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -3881,616 +5434,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -5202,38 +6145,39 @@
   </dxfs>
   <tableStyles count="6">
     <tableStyle name="Blad1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="293"/>
-      <tableStyleElement type="firstRowStripe" dxfId="292"/>
-      <tableStyleElement type="secondRowStripe" dxfId="291"/>
+      <tableStyleElement type="headerRow" dxfId="339"/>
+      <tableStyleElement type="firstRowStripe" dxfId="338"/>
+      <tableStyleElement type="secondRowStripe" dxfId="337"/>
     </tableStyle>
     <tableStyle name="Blad1-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="290"/>
-      <tableStyleElement type="firstRowStripe" dxfId="289"/>
-      <tableStyleElement type="secondRowStripe" dxfId="288"/>
+      <tableStyleElement type="headerRow" dxfId="336"/>
+      <tableStyleElement type="firstRowStripe" dxfId="335"/>
+      <tableStyleElement type="secondRowStripe" dxfId="334"/>
     </tableStyle>
     <tableStyle name="Blad1-style 3" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
-      <tableStyleElement type="headerRow" dxfId="287"/>
-      <tableStyleElement type="firstRowStripe" dxfId="286"/>
-      <tableStyleElement type="secondRowStripe" dxfId="285"/>
+      <tableStyleElement type="headerRow" dxfId="333"/>
+      <tableStyleElement type="firstRowStripe" dxfId="332"/>
+      <tableStyleElement type="secondRowStripe" dxfId="331"/>
     </tableStyle>
     <tableStyle name="Blad1-style 4" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
-      <tableStyleElement type="headerRow" dxfId="284"/>
-      <tableStyleElement type="firstRowStripe" dxfId="283"/>
-      <tableStyleElement type="secondRowStripe" dxfId="282"/>
+      <tableStyleElement type="headerRow" dxfId="330"/>
+      <tableStyleElement type="firstRowStripe" dxfId="329"/>
+      <tableStyleElement type="secondRowStripe" dxfId="328"/>
     </tableStyle>
     <tableStyle name="Blad1-style 5" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
-      <tableStyleElement type="headerRow" dxfId="281"/>
-      <tableStyleElement type="firstRowStripe" dxfId="280"/>
-      <tableStyleElement type="secondRowStripe" dxfId="279"/>
+      <tableStyleElement type="headerRow" dxfId="327"/>
+      <tableStyleElement type="firstRowStripe" dxfId="326"/>
+      <tableStyleElement type="secondRowStripe" dxfId="325"/>
     </tableStyle>
     <tableStyle name="Blad1-style 6" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
-      <tableStyleElement type="headerRow" dxfId="278"/>
-      <tableStyleElement type="firstRowStripe" dxfId="277"/>
-      <tableStyleElement type="secondRowStripe" dxfId="276"/>
+      <tableStyleElement type="headerRow" dxfId="324"/>
+      <tableStyleElement type="firstRowStripe" dxfId="323"/>
+      <tableStyleElement type="secondRowStripe" dxfId="322"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFCC99FF"/>
       <color rgb="FF666666"/>
       <color rgb="FF38761D"/>
       <color rgb="FF0B5394"/>
@@ -5256,300 +6200,350 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A71:AP98" headerRowDxfId="275" dataDxfId="274" totalsRowDxfId="273">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A71:AP98" headerRowDxfId="321" dataDxfId="320" totalsRowDxfId="319">
   <tableColumns count="42">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="272"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Revolution" dataDxfId="271"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Style" dataDxfId="270"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Level" dataDxfId="269"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Type" dataDxfId="268"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Member" dataDxfId="267"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Cooldown" dataDxfId="266"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Equipment" dataDxfId="265"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="TotalHits" dataDxfId="264"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="StandardHits" dataDxfId="263"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="DoTHits" dataDxfId="262"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="TrueWaitTime" dataDxfId="261"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="EfficientWaitTime" dataDxfId="260"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="DelayTime" dataDxfId="259"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Standard" dataDxfId="258"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Channeled" dataDxfId="257"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Timings" dataDxfId="256"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="DamMax" dataDxfId="255"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="DamMin" dataDxfId="254"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Bleed" dataDxfId="253"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="DoTOnMove" dataDxfId="252"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Puncture" dataDxfId="251"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="DoTDamMax" dataDxfId="250"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="DoTDamMin" dataDxfId="249"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="StunBindDam" dataDxfId="248"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="StunBindDamMax" dataDxfId="247"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="StunBindDamMin" dataDxfId="246"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Stun" dataDxfId="245"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="StunDur" dataDxfId="244"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Bind" dataDxfId="243"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="BindDur" dataDxfId="242"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="SideTargetDam" dataDxfId="241"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="SideTargetMax" dataDxfId="240"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="SideTargetMin" dataDxfId="239"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Boost1" dataDxfId="238"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Boost1X" dataDxfId="237"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Boost" dataDxfId="236"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="BoostTime" dataDxfId="235"/>
-    <tableColumn id="40" xr3:uid="{D1A36C20-6CD1-4BB3-8E3E-CA54E61A8361}" name="BoostX" dataDxfId="234"/>
-    <tableColumn id="41" xr3:uid="{611FDCB0-F868-4415-ADCC-3F51D3DF0479}" name="Special" dataDxfId="233"/>
-    <tableColumn id="42" xr3:uid="{1EE71006-83B9-4B2F-86DE-B9573051B455}" name="AoE" dataDxfId="232"/>
-    <tableColumn id="14" xr3:uid="{75B0C918-6DD2-4FDF-AC09-CDED88B1F2C9}" name="MaxTargets" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="318"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Revolution" dataDxfId="317"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Style" dataDxfId="316"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Level" dataDxfId="315"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Type" dataDxfId="314"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Member" dataDxfId="313"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Cooldown" dataDxfId="312"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Equipment" dataDxfId="311"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="TotalHits" dataDxfId="310"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="StandardHits" dataDxfId="309"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="DoTHits" dataDxfId="308"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="TrueWaitTime" dataDxfId="307"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="EfficientWaitTime" dataDxfId="306"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="DelayTime" dataDxfId="305"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Standard" dataDxfId="304"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Channeled" dataDxfId="303"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Timings" dataDxfId="302"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="DamMax" dataDxfId="301"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="DamMin" dataDxfId="300"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Bleed" dataDxfId="299"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="DoTOnMove" dataDxfId="298"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Puncture" dataDxfId="297"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="DoTDamMax" dataDxfId="296"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="DoTDamMin" dataDxfId="295"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="StunBindDam" dataDxfId="294"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="StunBindDamMax" dataDxfId="293"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="StunBindDamMin" dataDxfId="292"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Stun" dataDxfId="291"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="StunDur" dataDxfId="290"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Bind" dataDxfId="289"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="BindDur" dataDxfId="288"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="SideTargetDam" dataDxfId="287"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="SideTargetMax" dataDxfId="286"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="SideTargetMin" dataDxfId="285"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Boost1" dataDxfId="284"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Boost1X" dataDxfId="283"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Boost" dataDxfId="282"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="BoostTime" dataDxfId="281"/>
+    <tableColumn id="40" xr3:uid="{D1A36C20-6CD1-4BB3-8E3E-CA54E61A8361}" name="BoostX" dataDxfId="280"/>
+    <tableColumn id="41" xr3:uid="{611FDCB0-F868-4415-ADCC-3F51D3DF0479}" name="Special" dataDxfId="279"/>
+    <tableColumn id="42" xr3:uid="{1EE71006-83B9-4B2F-86DE-B9573051B455}" name="AoE" dataDxfId="278"/>
+    <tableColumn id="14" xr3:uid="{75B0C918-6DD2-4FDF-AC09-CDED88B1F2C9}" name="MaxTargets" dataDxfId="277" totalsRowDxfId="276"/>
   </tableColumns>
   <tableStyleInfo name="Blad1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="A1:AP22" headerRowDxfId="231" dataDxfId="230" totalsRowDxfId="229">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="A1:AP22" headerRowDxfId="275" dataDxfId="274" totalsRowDxfId="273">
   <tableColumns count="42">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name" dataDxfId="228"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Revolution" dataDxfId="227"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Style" dataDxfId="226"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Level" dataDxfId="225"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Type" dataDxfId="224"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Member" dataDxfId="223"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Cooldown" dataDxfId="222"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Equipment" dataDxfId="221"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="TotalHits" dataDxfId="220"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="StandardHits" dataDxfId="219"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="DoTHits" dataDxfId="218"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="TrueWaitTime" dataDxfId="217"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="EfficientWaitTime" dataDxfId="216"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="DelayTime" dataDxfId="215"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="Standard" dataDxfId="214"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="Channeled" dataDxfId="213"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="Timings" dataDxfId="212"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="DamMax" dataDxfId="211"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="DamMin" dataDxfId="210"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="Bleed" dataDxfId="209"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="BleedOnMove" dataDxfId="208"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="Puncture" dataDxfId="207"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0100-000018000000}" name="DoTDamMax" dataDxfId="206"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0100-000019000000}" name="DoTDamMin" dataDxfId="205"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0100-00001A000000}" name="StunBindDam" dataDxfId="204"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0100-00001B000000}" name="StunBindDamMax" dataDxfId="203"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0100-00001C000000}" name="StunBindDamMin" dataDxfId="202"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0100-00001D000000}" name="Stun" dataDxfId="201"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0100-00001E000000}" name="StunDur" dataDxfId="200"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0100-00001F000000}" name="Bind" dataDxfId="199"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0100-000020000000}" name="BindDur" dataDxfId="198"/>
-    <tableColumn id="40" xr3:uid="{5A44A965-C513-4643-9E25-0F1B5E2273C1}" name="SideTargetDam" dataDxfId="197"/>
-    <tableColumn id="41" xr3:uid="{1C991A78-5123-4900-A4D6-C5B51B2AF681}" name="SideTargetMax" dataDxfId="196"/>
-    <tableColumn id="42" xr3:uid="{7B802A20-5E5F-4137-83DD-0439D4938780}" name="SideTargetMin" dataDxfId="195"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0100-000021000000}" name="Boost1" dataDxfId="194"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0100-000022000000}" name="Boost1X" dataDxfId="193"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0100-000023000000}" name="Boost" dataDxfId="192"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0100-000024000000}" name="BoostTime" dataDxfId="191"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0100-000025000000}" name="BoostX" dataDxfId="190"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0100-000026000000}" name="Special" dataDxfId="189"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0100-000027000000}" name="AoE" dataDxfId="188"/>
-    <tableColumn id="43" xr3:uid="{3E02F154-8A80-4BAD-8314-955A6AA9E3B2}" name="MaxTargets" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name" dataDxfId="272"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Revolution" dataDxfId="271"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Style" dataDxfId="270"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Level" dataDxfId="269"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Type" dataDxfId="268"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Member" dataDxfId="267"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Cooldown" dataDxfId="266"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Equipment" dataDxfId="265"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="TotalHits" dataDxfId="264"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="StandardHits" dataDxfId="263"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="DoTHits" dataDxfId="262"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="TrueWaitTime" dataDxfId="261"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="EfficientWaitTime" dataDxfId="260"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="DelayTime" dataDxfId="259"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="Standard" dataDxfId="258"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="Channeled" dataDxfId="257"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="Timings" dataDxfId="256"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="DamMax" dataDxfId="255"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="DamMin" dataDxfId="254"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="Bleed" dataDxfId="253"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="BleedOnMove" dataDxfId="252"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="Puncture" dataDxfId="251"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0100-000018000000}" name="DoTDamMax" dataDxfId="250"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0100-000019000000}" name="DoTDamMin" dataDxfId="249"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0100-00001A000000}" name="StunBindDam" dataDxfId="248"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0100-00001B000000}" name="StunBindDamMax" dataDxfId="247"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0100-00001C000000}" name="StunBindDamMin" dataDxfId="246"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0100-00001D000000}" name="Stun" dataDxfId="245"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0100-00001E000000}" name="StunDur" dataDxfId="244"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0100-00001F000000}" name="Bind" dataDxfId="243"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0100-000020000000}" name="BindDur" dataDxfId="242"/>
+    <tableColumn id="40" xr3:uid="{5A44A965-C513-4643-9E25-0F1B5E2273C1}" name="SideTargetDam" dataDxfId="241"/>
+    <tableColumn id="41" xr3:uid="{1C991A78-5123-4900-A4D6-C5B51B2AF681}" name="SideTargetMax" dataDxfId="240"/>
+    <tableColumn id="42" xr3:uid="{7B802A20-5E5F-4137-83DD-0439D4938780}" name="SideTargetMin" dataDxfId="239"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0100-000021000000}" name="Boost1" dataDxfId="238"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0100-000022000000}" name="Boost1X" dataDxfId="237"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0100-000023000000}" name="Boost" dataDxfId="236"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0100-000024000000}" name="BoostTime" dataDxfId="235"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0100-000025000000}" name="BoostX" dataDxfId="234"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0100-000026000000}" name="Special" dataDxfId="233"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0100-000027000000}" name="AoE" dataDxfId="232"/>
+    <tableColumn id="43" xr3:uid="{3E02F154-8A80-4BAD-8314-955A6AA9E3B2}" name="MaxTargets" dataDxfId="231" totalsRowDxfId="230"/>
   </tableColumns>
   <tableStyleInfo name="Blad1-style 2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_3" displayName="Table_3" ref="A104:AP109" headerRowDxfId="187" dataDxfId="186" totalsRowDxfId="185">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_3" displayName="Table_3" ref="A104:AP109" headerRowDxfId="229" dataDxfId="228" totalsRowDxfId="227">
   <tableColumns count="42">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name" dataDxfId="184"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Revolution" dataDxfId="183"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Style" dataDxfId="182"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Level" dataDxfId="181"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Type" dataDxfId="180"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Member" dataDxfId="179"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Cooldown" dataDxfId="178"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Equipment" dataDxfId="177"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="TotalHits" dataDxfId="176"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="StandardHits" dataDxfId="175"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="DoTHits" dataDxfId="174"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="TrueWaitTime" dataDxfId="173"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="EfficientWaitTime" dataDxfId="172"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="DelayTime" dataDxfId="171"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="Standard" dataDxfId="170"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="Channeled" dataDxfId="169"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="Timings" dataDxfId="168"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="DamMax" dataDxfId="167"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" name="DamMin" dataDxfId="166"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0200-000015000000}" name="Bleed" dataDxfId="165"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0200-000016000000}" name="DoTOnMove" dataDxfId="164"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0200-000017000000}" name="Puncture" dataDxfId="163"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0200-000018000000}" name="DoTDamMax" dataDxfId="162"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0200-000019000000}" name="DoTDamMin" dataDxfId="161"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0200-00001A000000}" name="StunBindDam" dataDxfId="160"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0200-00001B000000}" name="StunBindDamMax" dataDxfId="159"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0200-00001C000000}" name="StunBindDamMin" dataDxfId="158"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0200-00001D000000}" name="Stun" dataDxfId="157"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0200-00001E000000}" name="StunDur" dataDxfId="156"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0200-00001F000000}" name="Bind" dataDxfId="155"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0200-000020000000}" name="BindDur" dataDxfId="154"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0200-000021000000}" name="Boost2" dataDxfId="153"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0200-000022000000}" name="Boost1" dataDxfId="152"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0200-000023000000}" name="Boost0" dataDxfId="151"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0200-000024000000}" name="Boost12" dataDxfId="150"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0200-000025000000}" name="Boost1X" dataDxfId="149"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0200-000026000000}" name="Boost" dataDxfId="148"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0200-000027000000}" name="BoostTime" dataDxfId="147"/>
-    <tableColumn id="40" xr3:uid="{5ECBD264-0A2B-421B-B5CC-F9D640B0D4C5}" name="BoostX" dataDxfId="146"/>
-    <tableColumn id="41" xr3:uid="{82ACCF73-BD8F-4737-ABE4-6C8D06D2056E}" name="Special" dataDxfId="145"/>
-    <tableColumn id="42" xr3:uid="{68C8A52C-10B3-4A40-B5B3-E08269C2DC5D}" name="AoE" dataDxfId="144"/>
-    <tableColumn id="14" xr3:uid="{C1AD10BE-0D9C-4829-A2F8-35D3510EB2A4}" name="MaxTargets" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name" dataDxfId="226"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Revolution" dataDxfId="225"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Style" dataDxfId="224"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Level" dataDxfId="223"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Type" dataDxfId="222"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Member" dataDxfId="221"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Cooldown" dataDxfId="220"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Equipment" dataDxfId="219"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="TotalHits" dataDxfId="218"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="StandardHits" dataDxfId="217"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="DoTHits" dataDxfId="216"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="TrueWaitTime" dataDxfId="215"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="EfficientWaitTime" dataDxfId="214"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="DelayTime" dataDxfId="213"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="Standard" dataDxfId="212"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="Channeled" dataDxfId="211"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="Timings" dataDxfId="210"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="DamMax" dataDxfId="209"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" name="DamMin" dataDxfId="208"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0200-000015000000}" name="Bleed" dataDxfId="207"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0200-000016000000}" name="DoTOnMove" dataDxfId="206"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0200-000017000000}" name="Puncture" dataDxfId="205"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0200-000018000000}" name="DoTDamMax" dataDxfId="204"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0200-000019000000}" name="DoTDamMin" dataDxfId="203"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0200-00001A000000}" name="StunBindDam" dataDxfId="202"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0200-00001B000000}" name="StunBindDamMax" dataDxfId="201"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0200-00001C000000}" name="StunBindDamMin" dataDxfId="200"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0200-00001D000000}" name="Stun" dataDxfId="199"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0200-00001E000000}" name="StunDur" dataDxfId="198"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0200-00001F000000}" name="Bind" dataDxfId="197"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0200-000020000000}" name="BindDur" dataDxfId="196"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0200-000021000000}" name="Boost2" dataDxfId="195"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0200-000022000000}" name="Boost1" dataDxfId="194"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0200-000023000000}" name="Boost0" dataDxfId="193"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0200-000024000000}" name="Boost12" dataDxfId="192"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0200-000025000000}" name="Boost1X" dataDxfId="191"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0200-000026000000}" name="Boost" dataDxfId="190"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0200-000027000000}" name="BoostTime" dataDxfId="189"/>
+    <tableColumn id="40" xr3:uid="{5ECBD264-0A2B-421B-B5CC-F9D640B0D4C5}" name="BoostX" dataDxfId="188"/>
+    <tableColumn id="41" xr3:uid="{82ACCF73-BD8F-4737-ABE4-6C8D06D2056E}" name="Special" dataDxfId="187"/>
+    <tableColumn id="42" xr3:uid="{68C8A52C-10B3-4A40-B5B3-E08269C2DC5D}" name="AoE" dataDxfId="186"/>
+    <tableColumn id="14" xr3:uid="{C1AD10BE-0D9C-4829-A2F8-35D3510EB2A4}" name="MaxTargets" dataDxfId="185" totalsRowDxfId="184"/>
   </tableColumns>
   <tableStyleInfo name="Blad1-style 3" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_4" displayName="Table_4" ref="A41:AP69" headerRowDxfId="143" dataDxfId="142" totalsRowDxfId="141">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_4" displayName="Table_4" ref="A41:AP69" headerRowDxfId="183" dataDxfId="182" totalsRowDxfId="181">
   <tableColumns count="42">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Name" dataDxfId="140"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Revolution" dataDxfId="139"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Style" dataDxfId="138"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Level" dataDxfId="137"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Type" dataDxfId="136"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Member" dataDxfId="135"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Cooldown" dataDxfId="134"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Equipment" dataDxfId="133"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="TotalHits" dataDxfId="132"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="StandardHits" dataDxfId="131"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="DoTHits" dataDxfId="130"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="TrueWaitTime" dataDxfId="129"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="EfficientWaitTime" dataDxfId="128"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="DelayTime" dataDxfId="127"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="Standard" dataDxfId="126"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="Channeled" dataDxfId="125"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="Timings" dataDxfId="124"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0300-000013000000}" name="DamMax" dataDxfId="123"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0300-000014000000}" name="DamMin" dataDxfId="122"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0300-000015000000}" name="Bleed" dataDxfId="121"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0300-000016000000}" name="DoTOnMove" dataDxfId="120"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0300-000017000000}" name="Puncture" dataDxfId="119"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0300-000018000000}" name="DoTDamMax" dataDxfId="118"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0300-000019000000}" name="DoTDamMin" dataDxfId="117"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0300-00001A000000}" name="StunBindDam" dataDxfId="116"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0300-00001B000000}" name="StunBindDamMax" dataDxfId="115"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0300-00001C000000}" name="StunBindDamMin" dataDxfId="114"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0300-00001D000000}" name="Stun" dataDxfId="113"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0300-00001E000000}" name="StunDur" dataDxfId="112"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0300-00001F000000}" name="Bind" dataDxfId="111"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0300-000020000000}" name="BindDur" dataDxfId="110"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0300-000021000000}" name="SideTargetDam" dataDxfId="109"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0300-000022000000}" name="SideTargetMax" dataDxfId="108"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0300-000023000000}" name="SideTargetMin" dataDxfId="107"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0300-000024000000}" name="Boost1" dataDxfId="106"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0300-000025000000}" name="Boost1X" dataDxfId="105"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0300-000026000000}" name="Boost" dataDxfId="104"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0300-000027000000}" name="BoostTime" dataDxfId="103"/>
-    <tableColumn id="40" xr3:uid="{0ED69F97-F566-406B-8650-934C3311067E}" name="BoostX" dataDxfId="102"/>
-    <tableColumn id="41" xr3:uid="{9AEF99B2-2794-44AD-9105-82C8D9FF17B4}" name="Special" dataDxfId="101"/>
-    <tableColumn id="42" xr3:uid="{08D86804-466F-4D86-8DFB-80FCCF167E73}" name="AoE" dataDxfId="100"/>
-    <tableColumn id="14" xr3:uid="{BBD6CF3E-93DA-4F0C-89EA-DDC1842AA689}" name="MaxTargets" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Name" dataDxfId="180"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Revolution" dataDxfId="179"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Style" dataDxfId="178"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Level" dataDxfId="177"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Type" dataDxfId="176"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Member" dataDxfId="175"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Cooldown" dataDxfId="174"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Equipment" dataDxfId="173"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="TotalHits" dataDxfId="172"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="StandardHits" dataDxfId="171"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="DoTHits" dataDxfId="170"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="TrueWaitTime" dataDxfId="169"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="EfficientWaitTime" dataDxfId="168"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="DelayTime" dataDxfId="167"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="Standard" dataDxfId="166"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="Channeled" dataDxfId="165"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="Timings" dataDxfId="164"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0300-000013000000}" name="DamMax" dataDxfId="163"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0300-000014000000}" name="DamMin" dataDxfId="162"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0300-000015000000}" name="Bleed" dataDxfId="161"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0300-000016000000}" name="DoTOnMove" dataDxfId="160"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0300-000017000000}" name="Puncture" dataDxfId="159"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0300-000018000000}" name="DoTDamMax" dataDxfId="158"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0300-000019000000}" name="DoTDamMin" dataDxfId="157"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0300-00001A000000}" name="StunBindDam" dataDxfId="156"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0300-00001B000000}" name="StunBindDamMax" dataDxfId="155"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0300-00001C000000}" name="StunBindDamMin" dataDxfId="154"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0300-00001D000000}" name="Stun" dataDxfId="153"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0300-00001E000000}" name="StunDur" dataDxfId="152"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0300-00001F000000}" name="Bind" dataDxfId="151"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0300-000020000000}" name="BindDur" dataDxfId="150"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0300-000021000000}" name="SideTargetDam" dataDxfId="149"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0300-000022000000}" name="SideTargetMax" dataDxfId="148"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0300-000023000000}" name="SideTargetMin" dataDxfId="147"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0300-000024000000}" name="Boost1" dataDxfId="146"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0300-000025000000}" name="Boost1X" dataDxfId="145"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0300-000026000000}" name="Boost" dataDxfId="144"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0300-000027000000}" name="BoostTime" dataDxfId="143"/>
+    <tableColumn id="40" xr3:uid="{0ED69F97-F566-406B-8650-934C3311067E}" name="BoostX" dataDxfId="142"/>
+    <tableColumn id="41" xr3:uid="{9AEF99B2-2794-44AD-9105-82C8D9FF17B4}" name="Special" dataDxfId="141"/>
+    <tableColumn id="42" xr3:uid="{08D86804-466F-4D86-8DFB-80FCCF167E73}" name="AoE" dataDxfId="140"/>
+    <tableColumn id="14" xr3:uid="{BBD6CF3E-93DA-4F0C-89EA-DDC1842AA689}" name="MaxTargets" dataDxfId="139" totalsRowDxfId="138"/>
   </tableColumns>
   <tableStyleInfo name="Blad1-style 4" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_5" displayName="Table_5" ref="A24:AP39" headerRowDxfId="99" dataDxfId="98" totalsRowDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_5" displayName="Table_5" ref="A24:AP39" headerRowDxfId="137" dataDxfId="136" totalsRowDxfId="135">
   <tableColumns count="42">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Name" dataDxfId="96"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Revolution" dataDxfId="95"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Style" dataDxfId="94"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Level" dataDxfId="93"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Type" dataDxfId="92"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Member" dataDxfId="91"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Cooldown" dataDxfId="90"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Equipment" dataDxfId="89"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="TotalHits" dataDxfId="88"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="StandardHits" dataDxfId="87"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="DoTHits" dataDxfId="86"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="TrueWaitTime" dataDxfId="85"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="EfficientWaitTime" dataDxfId="84"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="DelayTime" dataDxfId="83"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="Standard" dataDxfId="82"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0400-000011000000}" name="Channeled" dataDxfId="81"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="Timings" dataDxfId="80"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0400-000013000000}" name="DamMax" dataDxfId="79"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0400-000014000000}" name="DamMin" dataDxfId="78"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0400-000015000000}" name="Bleed" dataDxfId="77"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0400-000016000000}" name="DoTOnMove" dataDxfId="76"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0400-000017000000}" name="Puncture" dataDxfId="75"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0400-000018000000}" name="DoTDamMax" dataDxfId="74"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0400-000019000000}" name="DoTDamMin" dataDxfId="73"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0400-00001A000000}" name="StunBindDam" dataDxfId="72"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0400-00001B000000}" name="StunBindDamMax" dataDxfId="71"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0400-00001C000000}" name="StunBindDamMin" dataDxfId="70"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0400-00001D000000}" name="Stun" dataDxfId="69"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0400-00001E000000}" name="StunDur" dataDxfId="68"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0400-00001F000000}" name="Bind" dataDxfId="67"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0400-000020000000}" name="BindDur" dataDxfId="66"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0400-000021000000}" name="SideTargetDam" dataDxfId="65"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0400-000022000000}" name="SideTargetMax" dataDxfId="64"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0400-000023000000}" name="SideTargetMin" dataDxfId="63"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0400-000024000000}" name="Boost1" dataDxfId="62"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0400-000025000000}" name="Boost1X" dataDxfId="61"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0400-000026000000}" name="Boost" dataDxfId="60"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0400-000027000000}" name="BoostTime" dataDxfId="59"/>
-    <tableColumn id="40" xr3:uid="{A1060952-B866-4CAA-8180-7E7907148F23}" name="BoostX" dataDxfId="58"/>
-    <tableColumn id="41" xr3:uid="{4ED24E77-441A-4B4B-B0D5-C6D1081FC85C}" name="Special" dataDxfId="57"/>
-    <tableColumn id="42" xr3:uid="{B5D4E629-8FA4-43FF-8DA2-EC850BF95D9C}" name="AoE" dataDxfId="56"/>
-    <tableColumn id="14" xr3:uid="{49FE4F60-EE0A-4038-A94D-77E71F282227}" name="MaxTargets" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Name" dataDxfId="134"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Revolution" dataDxfId="133"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Style" dataDxfId="132"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Level" dataDxfId="131"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Type" dataDxfId="130"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Member" dataDxfId="129"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Cooldown" dataDxfId="128"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Equipment" dataDxfId="127"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="TotalHits" dataDxfId="126"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="StandardHits" dataDxfId="125"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="DoTHits" dataDxfId="124"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="TrueWaitTime" dataDxfId="123"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="EfficientWaitTime" dataDxfId="122"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="DelayTime" dataDxfId="121"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="Standard" dataDxfId="120"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0400-000011000000}" name="Channeled" dataDxfId="119"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="Timings" dataDxfId="118"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0400-000013000000}" name="DamMax" dataDxfId="117"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0400-000014000000}" name="DamMin" dataDxfId="116"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0400-000015000000}" name="Bleed" dataDxfId="115"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0400-000016000000}" name="DoTOnMove" dataDxfId="114"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0400-000017000000}" name="Puncture" dataDxfId="113"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0400-000018000000}" name="DoTDamMax" dataDxfId="112"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0400-000019000000}" name="DoTDamMin" dataDxfId="111"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0400-00001A000000}" name="StunBindDam" dataDxfId="110"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0400-00001B000000}" name="StunBindDamMax" dataDxfId="109"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0400-00001C000000}" name="StunBindDamMin" dataDxfId="108"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0400-00001D000000}" name="Stun" dataDxfId="107"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0400-00001E000000}" name="StunDur" dataDxfId="106"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0400-00001F000000}" name="Bind" dataDxfId="105"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0400-000020000000}" name="BindDur" dataDxfId="104"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0400-000021000000}" name="SideTargetDam" dataDxfId="103"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0400-000022000000}" name="SideTargetMax" dataDxfId="102"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0400-000023000000}" name="SideTargetMin" dataDxfId="101"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0400-000024000000}" name="Boost1" dataDxfId="100"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0400-000025000000}" name="Boost1X" dataDxfId="99"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0400-000026000000}" name="Boost" dataDxfId="98"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0400-000027000000}" name="BoostTime" dataDxfId="97"/>
+    <tableColumn id="40" xr3:uid="{A1060952-B866-4CAA-8180-7E7907148F23}" name="BoostX" dataDxfId="96"/>
+    <tableColumn id="41" xr3:uid="{4ED24E77-441A-4B4B-B0D5-C6D1081FC85C}" name="Special" dataDxfId="95"/>
+    <tableColumn id="42" xr3:uid="{B5D4E629-8FA4-43FF-8DA2-EC850BF95D9C}" name="AoE" dataDxfId="94"/>
+    <tableColumn id="14" xr3:uid="{49FE4F60-EE0A-4038-A94D-77E71F282227}" name="MaxTargets" dataDxfId="93" totalsRowDxfId="92"/>
   </tableColumns>
   <tableStyleInfo name="Blad1-style 5" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_6" displayName="Table_6" ref="A100:AP102" headerRowDxfId="55" dataDxfId="54" totalsRowDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_6" displayName="Table_6" ref="A100:AP102" headerRowDxfId="91" dataDxfId="90" totalsRowDxfId="89">
   <tableColumns count="42">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Name" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Revolution" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Style" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Level" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Type" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Member" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Cooldown" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Equipment" dataDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="TotalHits" dataDxfId="44"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="StandardHits" dataDxfId="43"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="DoTHits" dataDxfId="42"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="TrueWaitTime" dataDxfId="41"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0500-00000D000000}" name="EfficientWaitTime" dataDxfId="40"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0500-00000F000000}" name="DelayTime" dataDxfId="39"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0500-000010000000}" name="Standard" dataDxfId="38"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0500-000011000000}" name="Channeled" dataDxfId="37"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0500-000012000000}" name="Timings" dataDxfId="36"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0500-000013000000}" name="DamMax" dataDxfId="35"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0500-000014000000}" name="DamMin" dataDxfId="34"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0500-000015000000}" name="Bleed" dataDxfId="33"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0500-000016000000}" name="DoTOnMove" dataDxfId="32"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0500-000017000000}" name="Puncture" dataDxfId="31"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0500-000018000000}" name="DoTDamMax" dataDxfId="30"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0500-000019000000}" name="DoTDamMin" dataDxfId="29"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0500-00001A000000}" name="StunBindDam" dataDxfId="28"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0500-00001B000000}" name="StunBindDamMax" dataDxfId="27"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0500-00001C000000}" name="StunBindDamMin" dataDxfId="26"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0500-00001D000000}" name="Stun" dataDxfId="25"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0500-00001E000000}" name="StunDur" dataDxfId="24"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0500-00001F000000}" name="Bind" dataDxfId="23"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0500-000020000000}" name="BindDur" dataDxfId="22"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0500-000021000000}" name="SideTargetDam" dataDxfId="21"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0500-000022000000}" name="SideTargetMax" dataDxfId="20"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0500-000023000000}" name="SideTargetMin" dataDxfId="19"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0500-000024000000}" name="Boost1" dataDxfId="18"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0500-000025000000}" name="Boost1X" dataDxfId="17"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0500-000026000000}" name="Boost" dataDxfId="16"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0500-000027000000}" name="BoostTime" dataDxfId="15"/>
-    <tableColumn id="40" xr3:uid="{C59CDE34-CB21-4783-90C0-BD09A3B3D773}" name="BoostX" dataDxfId="14"/>
-    <tableColumn id="41" xr3:uid="{A653FFBB-7FC8-4B55-826A-470D206F3310}" name="Special" dataDxfId="13"/>
-    <tableColumn id="42" xr3:uid="{AEFB8D42-E541-47D0-A449-3026E488FF3F}" name="AoE" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{3A767BDE-A12D-4E6F-9618-9D4B38E05EAB}" name="MaxTargets" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Name" dataDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Revolution" dataDxfId="87"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Style" dataDxfId="86"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Level" dataDxfId="85"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Type" dataDxfId="84"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Member" dataDxfId="83"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Cooldown" dataDxfId="82"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Equipment" dataDxfId="81"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="TotalHits" dataDxfId="80"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="StandardHits" dataDxfId="79"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="DoTHits" dataDxfId="78"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="TrueWaitTime" dataDxfId="77"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0500-00000D000000}" name="EfficientWaitTime" dataDxfId="76"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0500-00000F000000}" name="DelayTime" dataDxfId="75"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0500-000010000000}" name="Standard" dataDxfId="74"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0500-000011000000}" name="Channeled" dataDxfId="73"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0500-000012000000}" name="Timings" dataDxfId="72"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0500-000013000000}" name="DamMax" dataDxfId="71"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0500-000014000000}" name="DamMin" dataDxfId="70"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0500-000015000000}" name="Bleed" dataDxfId="69"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0500-000016000000}" name="DoTOnMove" dataDxfId="68"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0500-000017000000}" name="Puncture" dataDxfId="67"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0500-000018000000}" name="DoTDamMax" dataDxfId="66"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0500-000019000000}" name="DoTDamMin" dataDxfId="65"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0500-00001A000000}" name="StunBindDam" dataDxfId="64"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0500-00001B000000}" name="StunBindDamMax" dataDxfId="63"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0500-00001C000000}" name="StunBindDamMin" dataDxfId="62"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0500-00001D000000}" name="Stun" dataDxfId="61"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0500-00001E000000}" name="StunDur" dataDxfId="60"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0500-00001F000000}" name="Bind" dataDxfId="59"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0500-000020000000}" name="BindDur" dataDxfId="58"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0500-000021000000}" name="SideTargetDam" dataDxfId="57"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0500-000022000000}" name="SideTargetMax" dataDxfId="56"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0500-000023000000}" name="SideTargetMin" dataDxfId="55"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0500-000024000000}" name="Boost1" dataDxfId="54"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0500-000025000000}" name="Boost1X" dataDxfId="53"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0500-000026000000}" name="Boost" dataDxfId="52"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0500-000027000000}" name="BoostTime" dataDxfId="51"/>
+    <tableColumn id="40" xr3:uid="{C59CDE34-CB21-4783-90C0-BD09A3B3D773}" name="BoostX" dataDxfId="50"/>
+    <tableColumn id="41" xr3:uid="{A653FFBB-7FC8-4B55-826A-470D206F3310}" name="Special" dataDxfId="49"/>
+    <tableColumn id="42" xr3:uid="{AEFB8D42-E541-47D0-A449-3026E488FF3F}" name="AoE" dataDxfId="48"/>
+    <tableColumn id="14" xr3:uid="{3A767BDE-A12D-4E6F-9618-9D4B38E05EAB}" name="MaxTargets" dataDxfId="47" totalsRowDxfId="46"/>
+  </tableColumns>
+  <tableStyleInfo name="Blad1-style 6" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F285187B-5328-487D-99E4-AF95529706FF}" name="Table_7" displayName="Table_7" ref="A111:AP112" headerRowDxfId="0" dataDxfId="45" totalsRowDxfId="44">
+  <tableColumns count="42">
+    <tableColumn id="1" xr3:uid="{BC317FF9-AC1C-4954-975F-21092A857620}" name="Name" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{F57B0D86-62E4-44CC-A23B-ACD9485E6DAA}" name="Revolution" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{0CC9E522-5442-4CD6-A570-55887303A283}" name="Style" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{0C9D9D52-2F78-46F5-9CD3-771B48B3BD90}" name="Level" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{D0826496-5F69-4BD5-9DF1-2FB9B3140310}" name="Type" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{3ABADAAA-AC71-4ACB-9349-91B6DBF4ED14}" name="Member" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{F9E6710C-A015-49EB-8EB0-06E8169FFD0D}" name="Cooldown" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{E8383EF4-D2F7-424F-9044-13E8DE57C61D}" name="Equipment" dataDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{64003ED0-C04B-429A-A793-E8A82DC161D9}" name="TotalHits" dataDxfId="34"/>
+    <tableColumn id="10" xr3:uid="{188069DE-AB2C-4E72-A7E0-A1829CDAD9DC}" name="StandardHits" dataDxfId="33"/>
+    <tableColumn id="11" xr3:uid="{33E899CF-C938-4319-8A02-CBFCAC50C0C4}" name="DoTHits" dataDxfId="32"/>
+    <tableColumn id="12" xr3:uid="{05C506BB-B32F-4916-9C7B-5C3689A3C017}" name="TrueWaitTime" dataDxfId="31"/>
+    <tableColumn id="13" xr3:uid="{D3ED6B38-0472-4693-A1C1-8FB1F468B883}" name="EfficientWaitTime" dataDxfId="30"/>
+    <tableColumn id="15" xr3:uid="{9AEBA609-2C3E-4C60-999C-A7FBCE102145}" name="DelayTime" dataDxfId="29"/>
+    <tableColumn id="16" xr3:uid="{B7EEFF9D-EC08-47A2-8070-50AA2601467A}" name="Standard" dataDxfId="28"/>
+    <tableColumn id="17" xr3:uid="{F603C62D-C446-432E-9ED9-8800CF8CD11E}" name="Channeled" dataDxfId="27"/>
+    <tableColumn id="18" xr3:uid="{9A321928-BD35-4B2B-ACB0-9063EC0F2039}" name="Timings" dataDxfId="26"/>
+    <tableColumn id="19" xr3:uid="{62447323-5027-4345-8F00-BC76A92D57C5}" name="DamMax" dataDxfId="25"/>
+    <tableColumn id="20" xr3:uid="{A30AB08C-6FB4-49A0-9268-6360D965442B}" name="DamMin" dataDxfId="24"/>
+    <tableColumn id="21" xr3:uid="{AC92A461-21AB-4835-8C2F-812313A8EAEA}" name="Bleed" dataDxfId="23"/>
+    <tableColumn id="22" xr3:uid="{4921DC46-A007-4982-B047-834FA7F29EB9}" name="DoTOnMove" dataDxfId="22"/>
+    <tableColumn id="23" xr3:uid="{C0AB8D76-F485-41D1-B7AB-B31AC771CDCF}" name="Puncture" dataDxfId="21"/>
+    <tableColumn id="24" xr3:uid="{0FEDDDD2-3A5B-41C0-AB99-0081235C0FF4}" name="DoTDamMax" dataDxfId="20"/>
+    <tableColumn id="25" xr3:uid="{621C1EB8-6D85-496C-A2B4-8ABF97983751}" name="DoTDamMin" dataDxfId="19"/>
+    <tableColumn id="26" xr3:uid="{96990070-AB53-48B6-A6E6-8FA581F1FCEC}" name="StunBindDam" dataDxfId="18"/>
+    <tableColumn id="27" xr3:uid="{3CA23C57-7ACE-4793-8258-3BEF9B819113}" name="StunBindDamMax" dataDxfId="17"/>
+    <tableColumn id="28" xr3:uid="{50CD6F7E-9CB6-403B-A8B6-EF7CB15CBC6D}" name="StunBindDamMin" dataDxfId="16"/>
+    <tableColumn id="29" xr3:uid="{A2773429-77F4-4D0E-94A3-48ADBD2936EA}" name="Stun" dataDxfId="15"/>
+    <tableColumn id="30" xr3:uid="{E2AA47A9-31AC-434D-98E1-6F3248D7FCA2}" name="StunDur" dataDxfId="14"/>
+    <tableColumn id="31" xr3:uid="{BEC78AA8-6114-4957-8DDF-89B25D5A504D}" name="Bind" dataDxfId="13"/>
+    <tableColumn id="32" xr3:uid="{8BDC178B-D12C-416F-93DB-FC85ABE464DE}" name="BindDur" dataDxfId="12"/>
+    <tableColumn id="33" xr3:uid="{425E134D-4FBB-4F32-A120-D98D7F42B7C8}" name="SideTargetDam" dataDxfId="11"/>
+    <tableColumn id="34" xr3:uid="{01715E3D-6279-44F6-AADE-8525C55F4391}" name="SideTargetMax" dataDxfId="10"/>
+    <tableColumn id="35" xr3:uid="{81201A94-60DE-45DB-8AB5-E9E245915D1A}" name="SideTargetMin" dataDxfId="9"/>
+    <tableColumn id="36" xr3:uid="{6F8A671B-F65A-4B30-AD61-BD7E221466AA}" name="Boost1" dataDxfId="8"/>
+    <tableColumn id="37" xr3:uid="{26CFC73D-F671-4246-930E-72D52150D190}" name="Boost1X" dataDxfId="7"/>
+    <tableColumn id="38" xr3:uid="{1E2BA311-F65A-46A8-887F-70D38B9C7AA0}" name="Boost" dataDxfId="6"/>
+    <tableColumn id="39" xr3:uid="{8C2AA9FD-0402-4D35-91EB-2E4E8FCD329C}" name="BoostTime" dataDxfId="5"/>
+    <tableColumn id="40" xr3:uid="{1F37C08D-F88F-4CCC-B9AA-BC3C2AD338F5}" name="BoostX" dataDxfId="4"/>
+    <tableColumn id="41" xr3:uid="{EBD51A62-A0C2-4E58-BC08-8344BCE7F3CE}" name="Special" dataDxfId="3"/>
+    <tableColumn id="42" xr3:uid="{C8E59D48-1A97-4327-B4EA-DFC4AD357F1B}" name="AoE" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{5D7386B0-82D3-4293-82A6-1EB697AF7D64}" name="MaxTargets" dataDxfId="1" totalsRowDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="Blad1-style 6" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5758,10 +6752,10 @@
   </sheetPr>
   <dimension ref="A1:AP112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A46" sqref="A46"/>
-      <selection pane="topRight" activeCell="AH90" sqref="AH90"/>
+      <selection pane="topRight" activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19384,98 +20378,266 @@
       <c r="AO110" s="16"/>
       <c r="AP110" s="16"/>
     </row>
-    <row r="111" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
-      <c r="L111" s="2"/>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
-      <c r="O111" s="2"/>
-      <c r="P111" s="2"/>
-      <c r="Q111" s="2"/>
-      <c r="R111" s="2"/>
-      <c r="S111" s="2"/>
-      <c r="T111" s="2"/>
-      <c r="U111" s="2"/>
-      <c r="V111" s="2"/>
-      <c r="W111" s="2"/>
-      <c r="X111" s="2"/>
-      <c r="Y111" s="2"/>
-      <c r="Z111" s="2"/>
-      <c r="AA111" s="2"/>
-      <c r="AB111" s="2"/>
-      <c r="AC111" s="2"/>
-      <c r="AD111" s="2"/>
-      <c r="AE111" s="2"/>
-      <c r="AF111" s="2"/>
-      <c r="AG111" s="2"/>
-      <c r="AH111" s="2"/>
-      <c r="AI111" s="2"/>
-      <c r="AJ111" s="2"/>
-      <c r="AK111" s="2"/>
-      <c r="AL111" s="2"/>
-      <c r="AM111" s="2"/>
-      <c r="AN111" s="2"/>
-      <c r="AO111" s="16"/>
-      <c r="AP111" s="16"/>
+    <row r="111" spans="1:42" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A111" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F111" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G111" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H111" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="I111" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="J111" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K111" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="L111" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="M111" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="N111" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="O111" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="P111" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q111" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="R111" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="S111" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="T111" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="U111" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="V111" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W111" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="X111" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y111" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z111" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA111" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB111" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC111" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD111" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE111" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF111" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG111" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH111" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI111" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ111" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK111" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL111" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM111" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN111" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO111" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP111" s="33" t="s">
+        <v>238</v>
+      </c>
     </row>
-    <row r="112" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
-      <c r="L112" s="2"/>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2"/>
-      <c r="P112" s="2"/>
-      <c r="Q112" s="2"/>
-      <c r="R112" s="2"/>
-      <c r="S112" s="2"/>
-      <c r="T112" s="2"/>
-      <c r="U112" s="2"/>
-      <c r="V112" s="2"/>
-      <c r="W112" s="2"/>
-      <c r="X112" s="2"/>
-      <c r="Y112" s="2"/>
-      <c r="Z112" s="2"/>
-      <c r="AA112" s="2"/>
-      <c r="AB112" s="2"/>
-      <c r="AC112" s="2"/>
-      <c r="AD112" s="2"/>
-      <c r="AE112" s="2"/>
-      <c r="AF112" s="2"/>
-      <c r="AG112" s="2"/>
-      <c r="AH112" s="2"/>
-      <c r="AI112" s="2"/>
-      <c r="AJ112" s="2"/>
-      <c r="AK112" s="2"/>
-      <c r="AL112" s="2"/>
-      <c r="AM112" s="2"/>
-      <c r="AN112" s="2"/>
-      <c r="AO112" s="16"/>
-      <c r="AP112" s="16"/>
+    <row r="112" spans="1:42" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A112" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="B112" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C112" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D112" s="34">
+        <v>0</v>
+      </c>
+      <c r="E112" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F112" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G112" s="35">
+        <v>17</v>
+      </c>
+      <c r="H112" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="I112" s="34">
+        <v>1</v>
+      </c>
+      <c r="J112" s="34">
+        <v>1</v>
+      </c>
+      <c r="K112" s="34">
+        <v>0</v>
+      </c>
+      <c r="L112" s="34">
+        <v>0</v>
+      </c>
+      <c r="M112" s="34">
+        <v>0</v>
+      </c>
+      <c r="N112" s="34">
+        <v>0</v>
+      </c>
+      <c r="O112" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="P112" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="R112" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="S112" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="T112" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="U112" s="34">
+        <v>0</v>
+      </c>
+      <c r="V112" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="W112" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="X112" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y112" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z112" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA112" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB112" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC112" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD112" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE112" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF112" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG112" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH112" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI112" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ112" s="34">
+        <v>0</v>
+      </c>
+      <c r="AK112" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL112" s="34">
+        <v>0</v>
+      </c>
+      <c r="AM112" s="34">
+        <v>0</v>
+      </c>
+      <c r="AN112" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO112" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP112" s="34">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="R26:S27 R2:S6">
-    <cfRule type="colorScale" priority="126">
+    <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19485,7 +20647,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R39:S39">
-    <cfRule type="colorScale" priority="136">
+    <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19495,7 +20657,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG33:AH33">
-    <cfRule type="colorScale" priority="121">
+    <cfRule type="colorScale" priority="129">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19505,6 +20667,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z25:AA27">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z29:AA39">
+    <cfRule type="colorScale" priority="115">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z43:AA69">
     <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="min"/>
@@ -19514,7 +20696,67 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z29:AA39">
+  <conditionalFormatting sqref="Z72:AA72">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z74:AA98">
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z101:AA101">
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z102:AA102">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z105:AA109">
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z3:AA22">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG2:AH13">
     <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min"/>
@@ -19524,17 +20766,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z43:AA69">
-    <cfRule type="colorScale" priority="106">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z72:AA72">
+  <conditionalFormatting sqref="AG25:AH32">
     <cfRule type="colorScale" priority="105">
       <colorScale>
         <cfvo type="min"/>
@@ -19544,7 +20776,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z74:AA98">
+  <conditionalFormatting sqref="AG34:AH39">
     <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
@@ -19554,7 +20786,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z101:AA101">
+  <conditionalFormatting sqref="AG42:AH69">
     <cfRule type="colorScale" priority="103">
       <colorScale>
         <cfvo type="min"/>
@@ -19564,7 +20796,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z102:AA102">
+  <conditionalFormatting sqref="AG72:AH98">
     <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="min"/>
@@ -19574,7 +20806,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z105:AA109">
+  <conditionalFormatting sqref="AG101:AH101">
     <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
@@ -19584,7 +20816,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z3:AA22">
+  <conditionalFormatting sqref="AG102:AH102">
     <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min"/>
@@ -19594,7 +20826,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AH13">
+  <conditionalFormatting sqref="AG105:AH109">
     <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min"/>
@@ -19604,7 +20836,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG25:AH32">
+  <conditionalFormatting sqref="W2:X6">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W8:X18">
     <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="min"/>
@@ -19614,7 +20856,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG34:AH39">
+  <conditionalFormatting sqref="W21:X22">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
@@ -19624,7 +20866,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG42:AH69">
+  <conditionalFormatting sqref="W26:X28">
     <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
@@ -19634,7 +20876,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG72:AH98">
+  <conditionalFormatting sqref="W30:X39">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
@@ -19644,7 +20886,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG101:AH101">
+  <conditionalFormatting sqref="W42:X42">
     <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
@@ -19654,7 +20896,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG102:AH102">
+  <conditionalFormatting sqref="W44:X56">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
@@ -19664,7 +20906,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG105:AH109">
+  <conditionalFormatting sqref="W58:X65">
     <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
@@ -19674,7 +20916,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:X6">
+  <conditionalFormatting sqref="W67:X67">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
@@ -19684,7 +20926,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W8:X18">
+  <conditionalFormatting sqref="W68:X68">
     <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
@@ -19694,7 +20936,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W21:X22">
+  <conditionalFormatting sqref="W72:X72">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
@@ -19704,7 +20946,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W26:X28">
+  <conditionalFormatting sqref="W73:X73">
     <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
@@ -19714,7 +20956,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W30:X39">
+  <conditionalFormatting sqref="W75:X78">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
@@ -19724,7 +20966,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W42:X42">
+  <conditionalFormatting sqref="W80:X80">
     <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
@@ -19734,7 +20976,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W44:X56">
+  <conditionalFormatting sqref="W81:X81">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
@@ -19744,7 +20986,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W58:X65">
+  <conditionalFormatting sqref="W82:X82">
     <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
@@ -19754,7 +20996,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W67:X67">
+  <conditionalFormatting sqref="W84:X84">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
@@ -19764,7 +21006,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W68:X68">
+  <conditionalFormatting sqref="W85:X85">
     <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
@@ -19774,7 +21016,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W72:X72">
+  <conditionalFormatting sqref="W86:X86">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
@@ -19784,7 +21026,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W73:X73">
+  <conditionalFormatting sqref="W88:X93">
     <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
@@ -19794,7 +21036,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W75:X78">
+  <conditionalFormatting sqref="W96:X96">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
@@ -19804,7 +21046,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W80:X80">
+  <conditionalFormatting sqref="W97:X97">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
@@ -19814,7 +21056,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W81:X81">
+  <conditionalFormatting sqref="W101:X101">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -19824,7 +21066,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W82:X82">
+  <conditionalFormatting sqref="W102:X102">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -19834,7 +21076,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W84:X84">
+  <conditionalFormatting sqref="W105:X109">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -19844,7 +21086,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W85:X85">
+  <conditionalFormatting sqref="R95:S95">
     <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
@@ -19854,7 +21096,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W86:X86">
+  <conditionalFormatting sqref="R94:S94">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
@@ -19864,7 +21106,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W88:X93">
+  <conditionalFormatting sqref="R88:S88">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
@@ -19874,7 +21116,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W96:X96">
+  <conditionalFormatting sqref="R87:S87">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
@@ -19884,7 +21126,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W97:X97">
+  <conditionalFormatting sqref="R74:S74">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
@@ -19894,7 +21136,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W101:X101">
+  <conditionalFormatting sqref="R109:S109">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -19904,7 +21146,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W102:X102">
+  <conditionalFormatting sqref="R107:S107">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -19914,7 +21156,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W105:X109">
+  <conditionalFormatting sqref="R105:S105">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -19924,7 +21166,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R95:S95">
+  <conditionalFormatting sqref="R98:S98">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -19934,7 +21176,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R94:S94">
+  <conditionalFormatting sqref="R69:S69">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -19944,7 +21186,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R88:S88">
+  <conditionalFormatting sqref="R66:S66">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -19954,7 +21196,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R87:S87">
+  <conditionalFormatting sqref="R65:S65">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -19964,7 +21206,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R74:S74">
+  <conditionalFormatting sqref="R63:S64">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -19974,7 +21216,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R109:S109">
+  <conditionalFormatting sqref="R58:S58">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -19984,7 +21226,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R107:S107">
+  <conditionalFormatting sqref="R57:S57">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -19994,7 +21236,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R105:S105">
+  <conditionalFormatting sqref="R43:S43">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -20004,7 +21246,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R98:S98">
+  <conditionalFormatting sqref="R25:S25">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -20014,7 +21256,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R69:S69">
+  <conditionalFormatting sqref="R29:S29">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -20024,7 +21266,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R66:S66">
+  <conditionalFormatting sqref="R34:S34">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -20034,7 +21276,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R65:S65">
+  <conditionalFormatting sqref="R22:S22">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -20044,7 +21286,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R63:S64">
+  <conditionalFormatting sqref="R20:S20">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -20054,7 +21296,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R58:S58">
+  <conditionalFormatting sqref="R7:S7">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -20064,7 +21306,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R57:S57">
+  <conditionalFormatting sqref="R45:S45">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -20074,7 +21316,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R43:S43">
+  <conditionalFormatting sqref="R76:S76">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -20084,7 +21326,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R25:S25">
+  <conditionalFormatting sqref="R77:S77">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -20094,7 +21336,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R29:S29">
+  <conditionalFormatting sqref="Q2:Q6">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -20104,7 +21346,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R34:S34">
+  <conditionalFormatting sqref="Q8:Q13">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -20114,7 +21356,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R22:S22">
+  <conditionalFormatting sqref="Q16">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -20124,7 +21366,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R20:S20">
+  <conditionalFormatting sqref="Q18">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -20134,7 +21376,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R7:S7">
+  <conditionalFormatting sqref="Q21">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -20144,7 +21386,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R45:S45">
+  <conditionalFormatting sqref="Q22">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -20154,7 +21396,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R76:S76">
+  <conditionalFormatting sqref="Q26">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -20164,7 +21406,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R77:S77">
+  <conditionalFormatting sqref="Q28">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -20174,7 +21416,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q6">
+  <conditionalFormatting sqref="Q27">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -20184,7 +21426,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q8:Q13">
+  <conditionalFormatting sqref="Q30">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -20194,7 +21436,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q16">
+  <conditionalFormatting sqref="Q33">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -20204,7 +21446,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q18">
+  <conditionalFormatting sqref="Q34">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -20214,7 +21456,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q21">
+  <conditionalFormatting sqref="Q35">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -20224,7 +21466,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q22">
+  <conditionalFormatting sqref="Q37">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -20234,7 +21476,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q26">
+  <conditionalFormatting sqref="Q38">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -20244,7 +21486,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q28">
+  <conditionalFormatting sqref="Q48:Q53">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -20254,7 +21496,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q27">
+  <conditionalFormatting sqref="Q44">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -20264,7 +21506,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q30">
+  <conditionalFormatting sqref="Q45">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -20274,7 +21516,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q33">
+  <conditionalFormatting sqref="Q42">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -20284,7 +21526,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q34">
+  <conditionalFormatting sqref="Q56">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -20294,7 +21536,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q35">
+  <conditionalFormatting sqref="Q58">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -20304,7 +21546,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q37">
+  <conditionalFormatting sqref="Q60">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -20314,7 +21556,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q38">
+  <conditionalFormatting sqref="Q61">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -20324,7 +21566,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q48:Q53">
+  <conditionalFormatting sqref="Q63:Q64">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -20334,7 +21576,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q44">
+  <conditionalFormatting sqref="Q65">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -20344,7 +21586,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q45">
+  <conditionalFormatting sqref="Q68">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -20354,7 +21596,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q42">
+  <conditionalFormatting sqref="Q73">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -20364,7 +21606,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q56">
+  <conditionalFormatting sqref="Q75">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -20374,7 +21616,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q58">
+  <conditionalFormatting sqref="Q77">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -20384,7 +21626,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q60">
+  <conditionalFormatting sqref="Q76">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -20394,7 +21636,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q61">
+  <conditionalFormatting sqref="Q80">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -20404,7 +21646,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q63:Q64">
+  <conditionalFormatting sqref="Q82">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -20414,7 +21656,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q65">
+  <conditionalFormatting sqref="Q84:Q86">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -20424,7 +21666,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q68">
+  <conditionalFormatting sqref="Q88">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -20434,7 +21676,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q73">
+  <conditionalFormatting sqref="Q90:Q93">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -20444,7 +21686,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q75">
+  <conditionalFormatting sqref="Q96">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -20454,7 +21696,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q77">
+  <conditionalFormatting sqref="Q101">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -20464,7 +21706,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q76">
+  <conditionalFormatting sqref="Q102">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -20474,7 +21716,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q80">
+  <conditionalFormatting sqref="R44:S44">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -20484,7 +21726,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q82">
+  <conditionalFormatting sqref="R97:S97">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -20494,7 +21736,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q84:Q86">
+  <conditionalFormatting sqref="AG16:AH22 AG14:AH14">
+    <cfRule type="colorScale" priority="150">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z112:AA112">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -20504,17 +21756,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q88">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q90:Q93">
+  <conditionalFormatting sqref="AG112:AH112">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -20524,17 +21766,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q96">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q101">
+  <conditionalFormatting sqref="W112:X112">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -20544,38 +21776,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q102">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R44:S44">
+  <conditionalFormatting sqref="Q112">
     <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R97:S97">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG16:AH22 AG14:AH14">
-    <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20586,13 +21788,14 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="6">
+  <tableParts count="7">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>